--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_4_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360603.9015694425</v>
+        <v>-362647.6763101495</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2315767.529901457</v>
+        <v>2315767.529901458</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -671,16 +671,16 @@
         <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>72.59575933632642</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516666</v>
+        <v>83.70888068730565</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>27.32226265396971</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>140.3944100306476</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.70004712226951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852173</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X5" t="n">
-        <v>122.0498888463688</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.2420339516666</v>
+        <v>5.64440334803171</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>65.73102118616944</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>24.91482734797276</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>11.21959608876246</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>170.3632832515926</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>16.86917505657791</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.7218456862862</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.32258765632123</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>302.4168475739851</v>
       </c>
       <c r="I11" t="n">
-        <v>80.010473403633</v>
+        <v>80.01047340363306</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>130.5682039521399</v>
       </c>
       <c r="T11" t="n">
-        <v>205.3841973969721</v>
+        <v>205.3841973969722</v>
       </c>
       <c r="U11" t="n">
-        <v>247.8127659429695</v>
+        <v>247.8127659429696</v>
       </c>
       <c r="V11" t="n">
         <v>324.4833159418436</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.5630376536459</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>163.9778785703365</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>143.1650201182779</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>145.8000859895978</v>
       </c>
       <c r="I13" t="n">
-        <v>107.6752539557841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.9560787929671</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>282.9693620184477</v>
       </c>
       <c r="V13" t="n">
-        <v>236.1127203753971</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>283.2540558082997</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>130.8920808201148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>215.3157108238035</v>
       </c>
     </row>
     <row r="14">
@@ -1765,25 +1765,25 @@
         <v>176.5630376536459</v>
       </c>
       <c r="C16" t="n">
-        <v>163.9778785703365</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>143.1650201182778</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.2420819847169</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>107.6752539557841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>218.3532034694291</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7234879277163</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9.508337815083621</v>
       </c>
       <c r="W16" t="n">
         <v>283.2540558082997</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>222.4407128607458</v>
       </c>
       <c r="Y16" t="n">
         <v>215.3157108238034</v>
@@ -1898,7 +1898,7 @@
         <v>205.3841973969721</v>
       </c>
       <c r="U17" t="n">
-        <v>247.812765942969</v>
+        <v>247.8127659429696</v>
       </c>
       <c r="V17" t="n">
         <v>324.4833159418436</v>
@@ -2002,13 +2002,13 @@
         <v>176.5630376536459</v>
       </c>
       <c r="C19" t="n">
-        <v>55.60801460710758</v>
+        <v>163.9778785703365</v>
       </c>
       <c r="D19" t="n">
         <v>145.346530489921</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>143.1650201182778</v>
       </c>
       <c r="F19" t="n">
         <v>142.1521054946399</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>107.6752539557841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.4802973434422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.9693620184477</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>239.4650271992248</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>222.4407128607458</v>
       </c>
       <c r="Y19" t="n">
-        <v>215.3157108238034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>302.4168475739851</v>
       </c>
       <c r="I20" t="n">
-        <v>80.01047340363245</v>
+        <v>80.01047340363297</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>247.8127659429695</v>
       </c>
       <c r="V20" t="n">
-        <v>324.4833159418435</v>
+        <v>324.4833159418433</v>
       </c>
       <c r="W20" t="n">
         <v>345.9720261891216</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>145.3465304899209</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>142.1521054946398</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.4802973434421</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>194.956078792967</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>218.353203469429</v>
       </c>
       <c r="U22" t="n">
         <v>282.9693620184476</v>
       </c>
       <c r="V22" t="n">
-        <v>24.87825359998873</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2540558082996</v>
+        <v>262.3173264061161</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>222.4407128607457</v>
       </c>
       <c r="Y22" t="n">
         <v>215.3157108238034</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>352.3668344183178</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>393.9393917721007</v>
+        <v>412.0034320579408</v>
       </c>
       <c r="H23" t="n">
-        <v>305.6857901022765</v>
+        <v>287.6217498164364</v>
       </c>
       <c r="I23" t="n">
-        <v>83.27941593192438</v>
+        <v>83.27941593192436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.8371464804312</v>
+        <v>115.7731061945911</v>
       </c>
       <c r="T23" t="n">
         <v>208.6531399252635</v>
       </c>
       <c r="U23" t="n">
-        <v>238.1756511185715</v>
+        <v>251.081708471261</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>351.6670603926289</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2476,22 +2476,22 @@
         <v>161.7679398960972</v>
       </c>
       <c r="C25" t="n">
-        <v>149.1827808127877</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>130.5514327323722</v>
       </c>
       <c r="E25" t="n">
-        <v>128.369922360729</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>127.3570077370911</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.4469842271682</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0049882320491</v>
+        <v>131.004988232049</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>92.68519958589344</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>110.7474168174124</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>215.1441539807653</v>
+        <v>268.1742642608989</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>350.4777940134588</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,10 +2570,10 @@
         <v>412.0034320579408</v>
       </c>
       <c r="H26" t="n">
-        <v>290.8906923447278</v>
+        <v>290.8906923447277</v>
       </c>
       <c r="I26" t="n">
-        <v>83.27941593192438</v>
+        <v>83.27941593192436</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>129.1883018287075</v>
+        <v>119.0420487228825</v>
       </c>
       <c r="T26" t="n">
         <v>208.6531399252635</v>
@@ -2612,16 +2612,16 @@
         <v>251.081708471261</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>323.103413818411</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>354.9360029209203</v>
       </c>
       <c r="Y26" t="n">
-        <v>371.4428408985049</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.0368824243886</v>
+        <v>165.0368824243885</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>35.01702226436569</v>
+        <v>114.5604388528461</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>131.6388648890204</v>
       </c>
       <c r="F28" t="n">
-        <v>130.6259502653825</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>151.7159267554595</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.14909872652674</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>95.95414211418482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>183.4299235637097</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>271.4432067891903</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>237.3425455662793</v>
+        <v>237.3425455662792</v>
       </c>
       <c r="W28" t="n">
-        <v>271.7279005790423</v>
+        <v>271.7279005790422</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>210.9145576314884</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>203.789555594546</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>339.8879438631342</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>392.0809479841627</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>412.0034320579408</v>
@@ -2810,7 +2810,7 @@
         <v>305.6857901022765</v>
       </c>
       <c r="I29" t="n">
-        <v>83.27941593192438</v>
+        <v>68.48431817437562</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,19 +2843,19 @@
         <v>133.8371464804312</v>
       </c>
       <c r="T29" t="n">
-        <v>193.8580421677148</v>
+        <v>208.6531399252635</v>
       </c>
       <c r="U29" t="n">
-        <v>246.4328638195363</v>
+        <v>251.081708471261</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>312.9571607125862</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>354.9360029209203</v>
+        <v>365.0822560267458</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.0368824243886</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>152.4517233410791</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>133.8203752606636</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>130.6259502653825</v>
+        <v>9.087347809003278</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.2739307603404</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.14909872652676</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>95.95414211418483</v>
+        <v>95.9541421141848</v>
       </c>
       <c r="S31" t="n">
         <v>183.4299235637097</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>206.8270482401717</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>271.4432067891903</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0700882053061</v>
+        <v>237.3425455662793</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>271.7279005790423</v>
       </c>
       <c r="X31" t="n">
         <v>210.9145576314884</v>
@@ -3047,7 +3047,7 @@
         <v>305.6857901022765</v>
       </c>
       <c r="I32" t="n">
-        <v>83.27941593192438</v>
+        <v>83.27941593192436</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>208.6531399252635</v>
       </c>
       <c r="U32" t="n">
-        <v>251.081708471261</v>
+        <v>202.0475705468921</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>320.6969627540989</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,25 +3187,25 @@
         <v>110.9105544400758</v>
       </c>
       <c r="C34" t="n">
-        <v>98.32539535676631</v>
+        <v>98.32539535676634</v>
       </c>
       <c r="D34" t="n">
-        <v>79.69404727635083</v>
+        <v>79.69404727635086</v>
       </c>
       <c r="E34" t="n">
-        <v>77.51253690470764</v>
+        <v>77.51253690470767</v>
       </c>
       <c r="F34" t="n">
-        <v>76.49962228106972</v>
+        <v>76.49962228106975</v>
       </c>
       <c r="G34" t="n">
-        <v>97.58959877114677</v>
+        <v>97.5895987711468</v>
       </c>
       <c r="H34" t="n">
         <v>80.14760277602764</v>
       </c>
       <c r="I34" t="n">
-        <v>42.02277074221396</v>
+        <v>42.02277074221398</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.82781412987204</v>
+        <v>41.82781412987205</v>
       </c>
       <c r="S34" t="n">
         <v>129.3035955793969</v>
       </c>
       <c r="T34" t="n">
-        <v>152.7007202558589</v>
+        <v>152.700720255859</v>
       </c>
       <c r="U34" t="n">
         <v>217.3168788048775</v>
@@ -3250,7 +3250,7 @@
         <v>217.6015725947295</v>
       </c>
       <c r="X34" t="n">
-        <v>156.7882296471756</v>
+        <v>156.7882296471757</v>
       </c>
       <c r="Y34" t="n">
         <v>149.6632276102333</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>333.6997037391115</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.6857901022765</v>
       </c>
       <c r="I35" t="n">
-        <v>83.27941593192436</v>
+        <v>34.24527800755423</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>97.58959877114683</v>
       </c>
       <c r="H37" t="n">
-        <v>80.14760277602768</v>
+        <v>80.14760277602767</v>
       </c>
       <c r="I37" t="n">
         <v>42.02277074221401</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.8371464804312</v>
+        <v>84.80300855606143</v>
       </c>
       <c r="T38" t="n">
-        <v>159.6190020008944</v>
+        <v>208.6531399252635</v>
       </c>
       <c r="U38" t="n">
         <v>251.081708471261</v>
@@ -3661,25 +3661,25 @@
         <v>110.9105544400758</v>
       </c>
       <c r="C40" t="n">
-        <v>98.32539535676631</v>
+        <v>98.32539535676632</v>
       </c>
       <c r="D40" t="n">
-        <v>79.69404727635083</v>
+        <v>79.69404727635084</v>
       </c>
       <c r="E40" t="n">
-        <v>77.51253690470764</v>
+        <v>77.51253690470766</v>
       </c>
       <c r="F40" t="n">
-        <v>76.49962228106972</v>
+        <v>76.49962228106973</v>
       </c>
       <c r="G40" t="n">
-        <v>97.58959877114677</v>
+        <v>97.58959877114678</v>
       </c>
       <c r="H40" t="n">
-        <v>80.14760277602761</v>
+        <v>80.14760277602763</v>
       </c>
       <c r="I40" t="n">
-        <v>42.02277074221395</v>
+        <v>42.02277074221396</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.82781412987202</v>
+        <v>41.82781412987204</v>
       </c>
       <c r="S40" t="n">
         <v>129.3035955793969</v>
@@ -3749,16 +3749,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>357.8419078173422</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.0034320579408</v>
+        <v>362.9692941335707</v>
       </c>
       <c r="H41" t="n">
         <v>305.6857901022765</v>
       </c>
       <c r="I41" t="n">
-        <v>83.27941593192435</v>
+        <v>83.27941593192436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>95.18651672786901</v>
       </c>
       <c r="I42" t="n">
-        <v>28.61821280476405</v>
+        <v>28.61821280476406</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.14760277602768</v>
       </c>
       <c r="I43" t="n">
-        <v>42.022770742214</v>
+        <v>42.02277074221401</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>41.82781412987208</v>
       </c>
       <c r="S43" t="n">
-        <v>129.3035955793969</v>
+        <v>129.303595579397</v>
       </c>
       <c r="T43" t="n">
         <v>152.700720255859</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.6997037391115</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,10 +3992,10 @@
         <v>412.0034320579408</v>
       </c>
       <c r="H44" t="n">
-        <v>305.6857901022765</v>
+        <v>256.6516521779064</v>
       </c>
       <c r="I44" t="n">
-        <v>83.27941593192435</v>
+        <v>83.27941593192436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>95.18651672786901</v>
       </c>
       <c r="I45" t="n">
-        <v>28.61821280476405</v>
+        <v>28.61821280476406</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.14760277602765</v>
       </c>
       <c r="I46" t="n">
-        <v>42.02277074221398</v>
+        <v>42.02277074221399</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>641.5543613459222</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="C2" t="n">
-        <v>641.5543613459222</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="D2" t="n">
-        <v>641.5543613459222</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="E2" t="n">
-        <v>641.5543613459222</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="F2" t="n">
-        <v>375.6533169502994</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="G2" t="n">
-        <v>360.2894569464293</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H2" t="n">
-        <v>94.38841255080649</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4340,7 +4340,7 @@
         <v>563.3128681098023</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4364,16 +4364,16 @@
         <v>907.4554057415451</v>
       </c>
       <c r="V2" t="n">
-        <v>907.4554057415451</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="W2" t="n">
-        <v>641.5543613459222</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="X2" t="n">
-        <v>641.5543613459222</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="Y2" t="n">
-        <v>641.5543613459222</v>
+        <v>556.9999364092498</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.9331861090481</v>
+        <v>283.7702868935507</v>
       </c>
       <c r="C3" t="n">
-        <v>280.4801568279211</v>
+        <v>283.7702868935507</v>
       </c>
       <c r="D3" t="n">
-        <v>280.4801568279211</v>
+        <v>283.7702868935507</v>
       </c>
       <c r="E3" t="n">
-        <v>280.4801568279211</v>
+        <v>283.7702868935507</v>
       </c>
       <c r="F3" t="n">
-        <v>133.9455988548061</v>
+        <v>137.2357289204357</v>
       </c>
       <c r="G3" t="n">
-        <v>133.9455988548061</v>
+        <v>137.2357289204357</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4416,43 +4416,43 @@
         <v>398.8245784347747</v>
       </c>
       <c r="M3" t="n">
-        <v>659.4341920469246</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="N3" t="n">
-        <v>659.4341920469246</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O3" t="n">
-        <v>919.8472561394167</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>911.1556004221738</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T3" t="n">
-        <v>709.1705428372497</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U3" t="n">
-        <v>709.1705428372497</v>
+        <v>726.6826938902474</v>
       </c>
       <c r="V3" t="n">
-        <v>709.1705428372497</v>
+        <v>491.5305856585047</v>
       </c>
       <c r="W3" t="n">
-        <v>454.9331861090481</v>
+        <v>491.5305856585047</v>
       </c>
       <c r="X3" t="n">
-        <v>454.9331861090481</v>
+        <v>491.5305856585047</v>
       </c>
       <c r="Y3" t="n">
-        <v>454.9331861090481</v>
+        <v>283.7702868935507</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706534</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706534</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706534</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706534</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706534</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>909.1428129902434</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360295</v>
+        <v>924.9408477296159</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>970.5690754315369</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>1020.546982284663</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>1050.693372907661</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706534</v>
+        <v>969.4458908915258</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>309.2697678648297</v>
+        <v>572.3637964131199</v>
       </c>
       <c r="C5" t="n">
-        <v>309.2697678648297</v>
+        <v>572.3637964131199</v>
       </c>
       <c r="D5" t="n">
-        <v>309.2697678648297</v>
+        <v>572.3637964131199</v>
       </c>
       <c r="E5" t="n">
-        <v>43.36872346920688</v>
+        <v>572.3637964131199</v>
       </c>
       <c r="F5" t="n">
-        <v>36.42322272000341</v>
+        <v>306.4627520174971</v>
       </c>
       <c r="G5" t="n">
-        <v>21.05936271613333</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
@@ -4574,10 +4574,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O5" t="n">
         <v>950.1371873885138</v>
@@ -4589,28 +4589,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>698.4535282668857</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T5" t="n">
-        <v>698.4535282668857</v>
+        <v>843.966258332007</v>
       </c>
       <c r="U5" t="n">
-        <v>698.4535282668857</v>
+        <v>843.966258332007</v>
       </c>
       <c r="V5" t="n">
-        <v>698.4535282668857</v>
+        <v>843.966258332007</v>
       </c>
       <c r="W5" t="n">
-        <v>698.4535282668857</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="X5" t="n">
-        <v>575.1708122604525</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="Y5" t="n">
-        <v>309.2697678648297</v>
+        <v>572.3637964131199</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.5939206892484</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C6" t="n">
-        <v>167.5939206892484</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D6" t="n">
-        <v>167.5939206892484</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E6" t="n">
-        <v>167.5939206892484</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
         <v>21.05936271613333</v>
@@ -4644,25 +4644,25 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K6" t="n">
-        <v>154.3302328992135</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L6" t="n">
-        <v>394.9337607940759</v>
+        <v>271.3358444898745</v>
       </c>
       <c r="M6" t="n">
-        <v>655.5433744062259</v>
+        <v>531.9454581020244</v>
       </c>
       <c r="N6" t="n">
-        <v>785.3166962490202</v>
+        <v>792.5550717141743</v>
       </c>
       <c r="O6" t="n">
-        <v>785.3166962490202</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
@@ -4671,25 +4671,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>986.5731649115457</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T6" t="n">
-        <v>986.5731649115457</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U6" t="n">
-        <v>986.5731649115457</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="V6" t="n">
-        <v>751.4210566798031</v>
+        <v>825.8165859510627</v>
       </c>
       <c r="W6" t="n">
-        <v>751.4210566798031</v>
+        <v>571.5792292228612</v>
       </c>
       <c r="X6" t="n">
-        <v>543.5695564742703</v>
+        <v>363.7277290173284</v>
       </c>
       <c r="Y6" t="n">
-        <v>335.8092577093164</v>
+        <v>363.7277290173284</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613333</v>
+        <v>32.39228805831763</v>
       </c>
       <c r="K7" t="n">
         <v>21.05936271613333</v>
@@ -4762,13 +4762,13 @@
         <v>182.5089274706534</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233622</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353781</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,7 +4835,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656313</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
         <v>2112.324418312743</v>
@@ -4844,10 +4844,10 @@
         <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1940.240293816184</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.100961840373</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.0730876294286</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.1369047015218</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.0730876294286</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1685.591665108312</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.105374659856</v>
+        <v>1303.105374659857</v>
       </c>
       <c r="F11" t="n">
-        <v>895.4214320200381</v>
+        <v>895.4214320200383</v>
       </c>
       <c r="G11" t="n">
-        <v>482.5583112830184</v>
+        <v>482.5583112830186</v>
       </c>
       <c r="H11" t="n">
         <v>177.086748076973</v>
@@ -5039,10 +5039,10 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J11" t="n">
-        <v>361.6624738943019</v>
+        <v>361.6624738943024</v>
       </c>
       <c r="K11" t="n">
-        <v>880.1646660902925</v>
+        <v>880.1646660902927</v>
       </c>
       <c r="L11" t="n">
         <v>1575.689112151772</v>
@@ -5054,10 +5054,10 @@
         <v>3154.871427069776</v>
       </c>
       <c r="O11" t="n">
-        <v>3854.403271039754</v>
+        <v>3854.403271039755</v>
       </c>
       <c r="P11" t="n">
-        <v>4413.763132719397</v>
+        <v>4413.763132719398</v>
       </c>
       <c r="Q11" t="n">
         <v>4756.597333965678</v>
@@ -5121,25 +5121,25 @@
         <v>135.8116614647249</v>
       </c>
       <c r="K12" t="n">
-        <v>281.552751523291</v>
+        <v>543.3733361657438</v>
       </c>
       <c r="L12" t="n">
-        <v>523.8421738297969</v>
+        <v>1152.794700322674</v>
       </c>
       <c r="M12" t="n">
-        <v>825.9393697800024</v>
+        <v>1454.89189627288</v>
       </c>
       <c r="N12" t="n">
-        <v>1150.440824504495</v>
+        <v>1779.393350997373</v>
       </c>
       <c r="O12" t="n">
-        <v>1805.856875800052</v>
+        <v>2054.028990366541</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.221263409732</v>
+        <v>2539.5479582582</v>
       </c>
       <c r="Q12" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R12" t="n">
         <v>2624.049592443911</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>517.9380057659481</v>
+        <v>388.1520336368141</v>
       </c>
       <c r="C13" t="n">
-        <v>352.3037849878305</v>
+        <v>388.1520336368141</v>
       </c>
       <c r="D13" t="n">
-        <v>352.3037849878305</v>
+        <v>388.1520336368141</v>
       </c>
       <c r="E13" t="n">
-        <v>352.3037849878305</v>
+        <v>243.5409022042102</v>
       </c>
       <c r="F13" t="n">
-        <v>352.3037849878305</v>
+        <v>243.5409022042102</v>
       </c>
       <c r="G13" t="n">
-        <v>352.3037849878305</v>
+        <v>243.5409022042102</v>
       </c>
       <c r="H13" t="n">
-        <v>205.0309708569236</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="I13" t="n">
         <v>96.26808807330328</v>
       </c>
       <c r="J13" t="n">
-        <v>110.6652323584194</v>
+        <v>110.6652323584193</v>
       </c>
       <c r="K13" t="n">
-        <v>262.0790948775151</v>
+        <v>262.079094877515</v>
       </c>
       <c r="L13" t="n">
-        <v>510.4581068707074</v>
+        <v>510.4581068707072</v>
       </c>
       <c r="M13" t="n">
-        <v>782.5521507668577</v>
+        <v>782.5521507668575</v>
       </c>
       <c r="N13" t="n">
         <v>1053.68797374651</v>
@@ -5224,25 +5224,25 @@
         <v>1506.725052084928</v>
       </c>
       <c r="S13" t="n">
-        <v>1506.725052084928</v>
+        <v>1309.79971997082</v>
       </c>
       <c r="T13" t="n">
-        <v>1506.725052084928</v>
+        <v>1309.79971997082</v>
       </c>
       <c r="U13" t="n">
-        <v>1220.897413682456</v>
+        <v>1023.972081568347</v>
       </c>
       <c r="V13" t="n">
-        <v>982.3997163335699</v>
+        <v>1023.972081568347</v>
       </c>
       <c r="W13" t="n">
-        <v>696.2845084463986</v>
+        <v>737.856873681176</v>
       </c>
       <c r="X13" t="n">
-        <v>696.2845084463986</v>
+        <v>605.642650630555</v>
       </c>
       <c r="Y13" t="n">
-        <v>696.2845084463986</v>
+        <v>388.1520336368141</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2406.215956355895</v>
+        <v>2406.215956355894</v>
       </c>
       <c r="C14" t="n">
         <v>2040.555401565272</v>
@@ -5264,10 +5264,10 @@
         <v>1303.105374659856</v>
       </c>
       <c r="F14" t="n">
-        <v>895.4214320200381</v>
+        <v>895.4214320200377</v>
       </c>
       <c r="G14" t="n">
-        <v>482.5583112830186</v>
+        <v>482.5583112830182</v>
       </c>
       <c r="H14" t="n">
         <v>177.086748076973</v>
@@ -5279,13 +5279,13 @@
         <v>361.6624738943019</v>
       </c>
       <c r="K14" t="n">
-        <v>880.164666090292</v>
+        <v>880.1646660902925</v>
       </c>
       <c r="L14" t="n">
         <v>1575.689112151771</v>
       </c>
       <c r="M14" t="n">
-        <v>2366.20061708163</v>
+        <v>2366.200617081631</v>
       </c>
       <c r="N14" t="n">
         <v>3154.871427069776</v>
@@ -5294,7 +5294,7 @@
         <v>3854.403271039754</v>
       </c>
       <c r="P14" t="n">
-        <v>4413.763132719398</v>
+        <v>4413.763132719397</v>
       </c>
       <c r="Q14" t="n">
         <v>4756.597333965678</v>
@@ -5303,25 +5303,25 @@
         <v>4813.404403665164</v>
       </c>
       <c r="S14" t="n">
-        <v>4681.517328966033</v>
+        <v>4681.517328966032</v>
       </c>
       <c r="T14" t="n">
         <v>4474.058543716566</v>
       </c>
       <c r="U14" t="n">
-        <v>4223.742618521646</v>
+        <v>4223.742618521645</v>
       </c>
       <c r="V14" t="n">
-        <v>3895.981693327865</v>
+        <v>3895.981693327864</v>
       </c>
       <c r="W14" t="n">
-        <v>3546.515000207541</v>
+        <v>3546.51500020754</v>
       </c>
       <c r="X14" t="n">
-        <v>3176.35120409625</v>
+        <v>3176.351204096249</v>
       </c>
       <c r="Y14" t="n">
-        <v>2789.513834270228</v>
+        <v>2789.513834270227</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J15" t="n">
-        <v>260.6417864517297</v>
+        <v>135.8116614647249</v>
       </c>
       <c r="K15" t="n">
-        <v>406.3828765102958</v>
+        <v>281.552751523291</v>
       </c>
       <c r="L15" t="n">
-        <v>648.6722988168017</v>
+        <v>523.8421738297969</v>
       </c>
       <c r="M15" t="n">
-        <v>950.769494767007</v>
+        <v>825.9393697800024</v>
       </c>
       <c r="N15" t="n">
-        <v>1749.819900091618</v>
+        <v>1624.989775104613</v>
       </c>
       <c r="O15" t="n">
-        <v>2024.455539460786</v>
+        <v>2023.18357064852</v>
       </c>
       <c r="P15" t="n">
-        <v>2331.571443399709</v>
+        <v>2539.5479582582</v>
       </c>
       <c r="Q15" t="n">
         <v>2624.049592443911</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>406.5134402840247</v>
+        <v>369.9219627606783</v>
       </c>
       <c r="C16" t="n">
-        <v>240.8792195059071</v>
+        <v>369.9219627606783</v>
       </c>
       <c r="D16" t="n">
-        <v>240.8792195059071</v>
+        <v>369.9219627606783</v>
       </c>
       <c r="E16" t="n">
-        <v>96.26808807330328</v>
+        <v>369.9219627606783</v>
       </c>
       <c r="F16" t="n">
-        <v>96.26808807330328</v>
+        <v>369.9219627606783</v>
       </c>
       <c r="G16" t="n">
-        <v>96.26808807330328</v>
+        <v>205.0309708569236</v>
       </c>
       <c r="H16" t="n">
-        <v>96.26808807330328</v>
+        <v>205.0309708569236</v>
       </c>
       <c r="I16" t="n">
         <v>96.26808807330328</v>
@@ -5437,13 +5437,13 @@
         <v>110.6652323584194</v>
       </c>
       <c r="K16" t="n">
-        <v>262.0790948775152</v>
+        <v>262.0790948775151</v>
       </c>
       <c r="L16" t="n">
-        <v>510.4581068707074</v>
+        <v>510.4581068707073</v>
       </c>
       <c r="M16" t="n">
-        <v>782.5521507668578</v>
+        <v>782.5521507668577</v>
       </c>
       <c r="N16" t="n">
         <v>1053.68797374651</v>
@@ -5464,22 +5464,22 @@
         <v>1506.725052084928</v>
       </c>
       <c r="T16" t="n">
-        <v>1286.166260701666</v>
+        <v>1286.166260701667</v>
       </c>
       <c r="U16" t="n">
-        <v>1088.465767845387</v>
+        <v>1286.166260701667</v>
       </c>
       <c r="V16" t="n">
-        <v>1088.465767845387</v>
+        <v>1276.561879070269</v>
       </c>
       <c r="W16" t="n">
-        <v>802.3505599582159</v>
+        <v>990.4466711830978</v>
       </c>
       <c r="X16" t="n">
-        <v>802.3505599582159</v>
+        <v>765.7590824348697</v>
       </c>
       <c r="Y16" t="n">
-        <v>584.8599429644751</v>
+        <v>548.2684654411287</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2406.215956355895</v>
       </c>
       <c r="C17" t="n">
-        <v>2040.555401565273</v>
+        <v>2040.555401565272</v>
       </c>
       <c r="D17" t="n">
-        <v>1685.591665108312</v>
+        <v>1685.591665108311</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.105374659857</v>
+        <v>1303.105374659856</v>
       </c>
       <c r="F17" t="n">
-        <v>895.4214320200383</v>
+        <v>895.4214320200379</v>
       </c>
       <c r="G17" t="n">
-        <v>482.5583112830186</v>
+        <v>482.5583112830182</v>
       </c>
       <c r="H17" t="n">
         <v>177.086748076973</v>
@@ -5513,19 +5513,19 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J17" t="n">
-        <v>361.6624738943028</v>
+        <v>361.6624738943024</v>
       </c>
       <c r="K17" t="n">
-        <v>880.1646660902934</v>
+        <v>880.1646660902927</v>
       </c>
       <c r="L17" t="n">
         <v>1575.689112151772</v>
       </c>
       <c r="M17" t="n">
-        <v>2366.200617081632</v>
+        <v>2366.200617081631</v>
       </c>
       <c r="N17" t="n">
-        <v>3154.871427069777</v>
+        <v>3154.871427069776</v>
       </c>
       <c r="O17" t="n">
         <v>3854.403271039755</v>
@@ -5543,22 +5543,22 @@
         <v>4681.517328966032</v>
       </c>
       <c r="T17" t="n">
-        <v>4474.058543716566</v>
+        <v>4474.058543716565</v>
       </c>
       <c r="U17" t="n">
-        <v>4223.742618521647</v>
+        <v>4223.742618521646</v>
       </c>
       <c r="V17" t="n">
-        <v>3895.981693327866</v>
+        <v>3895.981693327865</v>
       </c>
       <c r="W17" t="n">
-        <v>3546.515000207541</v>
+        <v>3546.51500020754</v>
       </c>
       <c r="X17" t="n">
-        <v>3176.351204096251</v>
+        <v>3176.35120409625</v>
       </c>
       <c r="Y17" t="n">
-        <v>2789.513834270228</v>
+        <v>2789.513834270227</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J18" t="n">
-        <v>135.8116614647249</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K18" t="n">
-        <v>281.552751523291</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L18" t="n">
-        <v>660.901267492154</v>
+        <v>910.4928834592545</v>
       </c>
       <c r="M18" t="n">
-        <v>1424.046476554859</v>
+        <v>1212.59007940946</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.547931279352</v>
+        <v>1537.091534133953</v>
       </c>
       <c r="O18" t="n">
-        <v>2023.18357064852</v>
+        <v>1815.20705579003</v>
       </c>
       <c r="P18" t="n">
-        <v>2539.5479582582</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q18" t="n">
         <v>2624.049592443911</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>716.4943370956967</v>
+        <v>861.8070947984468</v>
       </c>
       <c r="C19" t="n">
-        <v>660.3246253713455</v>
+        <v>696.1728740203291</v>
       </c>
       <c r="D19" t="n">
-        <v>513.5099481087991</v>
+        <v>549.3581967577827</v>
       </c>
       <c r="E19" t="n">
-        <v>513.5099481087991</v>
+        <v>404.7470653251789</v>
       </c>
       <c r="F19" t="n">
-        <v>369.9219627606781</v>
+        <v>261.1590799770577</v>
       </c>
       <c r="G19" t="n">
-        <v>205.0309708569236</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="H19" t="n">
-        <v>205.0309708569236</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="I19" t="n">
         <v>96.26808807330328</v>
@@ -5680,7 +5680,7 @@
         <v>510.4581068707074</v>
       </c>
       <c r="M19" t="n">
-        <v>782.5521507668578</v>
+        <v>782.5521507668577</v>
       </c>
       <c r="N19" t="n">
         <v>1053.68797374651</v>
@@ -5695,28 +5695,28 @@
         <v>1506.725052084928</v>
       </c>
       <c r="R19" t="n">
-        <v>1398.15909517236</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="S19" t="n">
-        <v>1398.15909517236</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="T19" t="n">
-        <v>1398.15909517236</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="U19" t="n">
-        <v>1112.331456769888</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="V19" t="n">
-        <v>1112.331456769888</v>
+        <v>1506.725052084928</v>
       </c>
       <c r="W19" t="n">
-        <v>1112.331456769888</v>
+        <v>1264.841186227125</v>
       </c>
       <c r="X19" t="n">
-        <v>1112.331456769888</v>
+        <v>1040.153597478897</v>
       </c>
       <c r="Y19" t="n">
-        <v>894.840839776147</v>
+        <v>1040.153597478897</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2406.215956355894</v>
+        <v>2406.215956355895</v>
       </c>
       <c r="C20" t="n">
         <v>2040.555401565272</v>
@@ -5738,22 +5738,22 @@
         <v>1303.105374659856</v>
       </c>
       <c r="F20" t="n">
-        <v>895.4214320200376</v>
+        <v>895.4214320200381</v>
       </c>
       <c r="G20" t="n">
-        <v>482.558311283018</v>
+        <v>482.5583112830185</v>
       </c>
       <c r="H20" t="n">
-        <v>177.0867480769724</v>
+        <v>177.086748076973</v>
       </c>
       <c r="I20" t="n">
         <v>96.26808807330328</v>
       </c>
       <c r="J20" t="n">
-        <v>361.6624738943028</v>
+        <v>361.6624738943019</v>
       </c>
       <c r="K20" t="n">
-        <v>880.1646660902929</v>
+        <v>880.1646660902925</v>
       </c>
       <c r="L20" t="n">
         <v>1575.689112151772</v>
@@ -5765,10 +5765,10 @@
         <v>3154.871427069776</v>
       </c>
       <c r="O20" t="n">
-        <v>3854.403271039755</v>
+        <v>3854.403271039754</v>
       </c>
       <c r="P20" t="n">
-        <v>4413.763132719398</v>
+        <v>4413.763132719397</v>
       </c>
       <c r="Q20" t="n">
         <v>4756.597333965678</v>
@@ -5789,13 +5789,13 @@
         <v>3895.981693327865</v>
       </c>
       <c r="W20" t="n">
-        <v>3546.51500020754</v>
+        <v>3546.515000207541</v>
       </c>
       <c r="X20" t="n">
-        <v>3176.351204096249</v>
+        <v>3176.35120409625</v>
       </c>
       <c r="Y20" t="n">
-        <v>2789.513834270227</v>
+        <v>2789.513834270228</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J21" t="n">
-        <v>260.6417864517297</v>
+        <v>135.8116614647249</v>
       </c>
       <c r="K21" t="n">
-        <v>418.6118451856481</v>
+        <v>512.5279164477234</v>
       </c>
       <c r="L21" t="n">
-        <v>660.901267492154</v>
+        <v>1121.949280604654</v>
       </c>
       <c r="M21" t="n">
         <v>1424.046476554859</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.6707506839707</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="C22" t="n">
-        <v>386.6707506839707</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="D22" t="n">
-        <v>239.8560734214243</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="E22" t="n">
-        <v>239.8560734214243</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="F22" t="n">
         <v>96.26808807330328</v>
@@ -5911,16 +5911,16 @@
         <v>110.6652323584194</v>
       </c>
       <c r="K22" t="n">
-        <v>262.0790948775153</v>
+        <v>262.0790948775152</v>
       </c>
       <c r="L22" t="n">
         <v>510.4581068707075</v>
       </c>
       <c r="M22" t="n">
-        <v>782.5521507668577</v>
+        <v>782.5521507668578</v>
       </c>
       <c r="N22" t="n">
-        <v>1053.68797374651</v>
+        <v>1053.687973746511</v>
       </c>
       <c r="O22" t="n">
         <v>1288.356544917991</v>
@@ -5932,28 +5932,28 @@
         <v>1506.725052084929</v>
       </c>
       <c r="R22" t="n">
-        <v>1398.159095172361</v>
+        <v>1506.725052084929</v>
       </c>
       <c r="S22" t="n">
-        <v>1201.233763058253</v>
+        <v>1309.79971997082</v>
       </c>
       <c r="T22" t="n">
-        <v>1201.233763058253</v>
+        <v>1089.240928587559</v>
       </c>
       <c r="U22" t="n">
-        <v>915.4061246557804</v>
+        <v>803.4132901850865</v>
       </c>
       <c r="V22" t="n">
-        <v>890.2765755648827</v>
+        <v>803.4132901850865</v>
       </c>
       <c r="W22" t="n">
-        <v>604.1613676777115</v>
+        <v>538.4462938152722</v>
       </c>
       <c r="X22" t="n">
-        <v>604.1613676777115</v>
+        <v>313.7587050670441</v>
       </c>
       <c r="Y22" t="n">
-        <v>386.6707506839707</v>
+        <v>96.26808807330328</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2411.083186065187</v>
+        <v>2398.046764496814</v>
       </c>
       <c r="C23" t="n">
         <v>2042.120669124776</v>
@@ -5978,7 +5978,7 @@
         <v>887.0808131301735</v>
       </c>
       <c r="G23" t="n">
-        <v>489.1622355825971</v>
+        <v>470.9157302433646</v>
       </c>
       <c r="H23" t="n">
         <v>180.3887102267622</v>
@@ -5987,19 +5987,19 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J23" t="n">
-        <v>361.6624738943028</v>
+        <v>361.6624738943025</v>
       </c>
       <c r="K23" t="n">
-        <v>880.1646660902934</v>
+        <v>880.1646660902928</v>
       </c>
       <c r="L23" t="n">
         <v>1575.689112151772</v>
       </c>
       <c r="M23" t="n">
-        <v>2366.200617081632</v>
+        <v>2366.200617081631</v>
       </c>
       <c r="N23" t="n">
-        <v>3154.871427069777</v>
+        <v>3154.871427069776</v>
       </c>
       <c r="O23" t="n">
         <v>3854.403271039755</v>
@@ -6014,25 +6014,25 @@
         <v>4813.404403665164</v>
       </c>
       <c r="S23" t="n">
-        <v>4678.215366816244</v>
+        <v>4696.461872155476</v>
       </c>
       <c r="T23" t="n">
-        <v>4467.454619416988</v>
+        <v>4485.70112475622</v>
       </c>
       <c r="U23" t="n">
-        <v>4226.873153640653</v>
+        <v>4232.083237411513</v>
       </c>
       <c r="V23" t="n">
-        <v>3895.810266297083</v>
+        <v>3901.020350067942</v>
       </c>
       <c r="W23" t="n">
-        <v>3543.041611026968</v>
+        <v>3548.251694797827</v>
       </c>
       <c r="X23" t="n">
-        <v>3187.822358105121</v>
+        <v>3174.785936536748</v>
       </c>
       <c r="Y23" t="n">
-        <v>2797.683026129309</v>
+        <v>2784.646604560936</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J24" t="n">
-        <v>260.6417864517297</v>
+        <v>212.2678678417509</v>
       </c>
       <c r="K24" t="n">
-        <v>406.3828765102958</v>
+        <v>619.8295425427698</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6722988168017</v>
+        <v>1229.2509066997</v>
       </c>
       <c r="M24" t="n">
-        <v>1024.77260048092</v>
+        <v>1531.348102649906</v>
       </c>
       <c r="N24" t="n">
-        <v>1349.274055205413</v>
+        <v>1855.849557374399</v>
       </c>
       <c r="O24" t="n">
-        <v>2013.833390658543</v>
+        <v>2130.485196743567</v>
       </c>
       <c r="P24" t="n">
-        <v>2530.197778268222</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q24" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R24" t="n">
         <v>2624.049592443911</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>769.4662010783834</v>
+        <v>510.4129418021816</v>
       </c>
       <c r="C25" t="n">
-        <v>618.7765234897088</v>
+        <v>510.4129418021816</v>
       </c>
       <c r="D25" t="n">
-        <v>486.9063894166055</v>
+        <v>378.5428077290783</v>
       </c>
       <c r="E25" t="n">
-        <v>357.2398011734448</v>
+        <v>378.5428077290783</v>
       </c>
       <c r="F25" t="n">
-        <v>228.596359014767</v>
+        <v>378.5428077290783</v>
       </c>
       <c r="G25" t="n">
         <v>228.596359014767</v>
@@ -6145,19 +6145,19 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J25" t="n">
-        <v>125.3123791383927</v>
+        <v>125.3123791383926</v>
       </c>
       <c r="K25" t="n">
-        <v>291.3733884374616</v>
+        <v>291.3733884374617</v>
       </c>
       <c r="L25" t="n">
         <v>554.3995472106271</v>
       </c>
       <c r="M25" t="n">
-        <v>841.1407378867507</v>
+        <v>841.1407378867508</v>
       </c>
       <c r="N25" t="n">
-        <v>1126.923707646376</v>
+        <v>1126.923707646377</v>
       </c>
       <c r="O25" t="n">
         <v>1376.239425597831</v>
@@ -6166,31 +6166,31 @@
         <v>1568.632472527913</v>
       </c>
       <c r="Q25" t="n">
-        <v>1623.902226324715</v>
+        <v>1623.902226324714</v>
       </c>
       <c r="R25" t="n">
-        <v>1623.902226324715</v>
+        <v>1530.28081260159</v>
       </c>
       <c r="S25" t="n">
-        <v>1623.902226324715</v>
+        <v>1418.414735008244</v>
       </c>
       <c r="T25" t="n">
-        <v>1623.902226324715</v>
+        <v>1418.414735008244</v>
       </c>
       <c r="U25" t="n">
-        <v>1406.584899071416</v>
+        <v>1147.531639795215</v>
       </c>
       <c r="V25" t="n">
-        <v>1406.584899071416</v>
+        <v>1147.531639795215</v>
       </c>
       <c r="W25" t="n">
-        <v>1135.414234373688</v>
+        <v>876.3609750974865</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.414234373688</v>
+        <v>876.3609750974865</v>
       </c>
       <c r="Y25" t="n">
-        <v>932.8681605693906</v>
+        <v>673.8149012931889</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2399.440605025534</v>
+        <v>2414.385148214977</v>
       </c>
       <c r="C26" t="n">
         <v>2045.422631274565</v>
@@ -6212,7 +6212,7 @@
         <v>1301.36868006957</v>
       </c>
       <c r="F26" t="n">
-        <v>890.3827752799629</v>
+        <v>890.3827752799627</v>
       </c>
       <c r="G26" t="n">
         <v>474.2176923931539</v>
@@ -6224,25 +6224,25 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J26" t="n">
-        <v>361.6624738943019</v>
+        <v>361.6624738943024</v>
       </c>
       <c r="K26" t="n">
-        <v>880.1646660902925</v>
+        <v>880.1646660902929</v>
       </c>
       <c r="L26" t="n">
         <v>1575.689112151772</v>
       </c>
       <c r="M26" t="n">
-        <v>2366.200617081631</v>
+        <v>2366.200617081632</v>
       </c>
       <c r="N26" t="n">
-        <v>3154.871427069776</v>
+        <v>3154.871427069777</v>
       </c>
       <c r="O26" t="n">
-        <v>3854.403271039754</v>
+        <v>3854.403271039755</v>
       </c>
       <c r="P26" t="n">
-        <v>4413.763132719397</v>
+        <v>4413.763132719398</v>
       </c>
       <c r="Q26" t="n">
         <v>4756.597333965678</v>
@@ -6251,25 +6251,25 @@
         <v>4813.404403665164</v>
       </c>
       <c r="S26" t="n">
-        <v>4682.911169494752</v>
+        <v>4693.159910005686</v>
       </c>
       <c r="T26" t="n">
-        <v>4472.150422095497</v>
+        <v>4482.399162606431</v>
       </c>
       <c r="U26" t="n">
-        <v>4218.532534750789</v>
+        <v>4228.781275261723</v>
       </c>
       <c r="V26" t="n">
-        <v>3887.469647407218</v>
+        <v>3902.414190596661</v>
       </c>
       <c r="W26" t="n">
-        <v>3534.700992137104</v>
+        <v>3549.645535326547</v>
       </c>
       <c r="X26" t="n">
-        <v>3161.235233876024</v>
+        <v>3191.12432025491</v>
       </c>
       <c r="Y26" t="n">
-        <v>2786.040445089656</v>
+        <v>2800.984988279099</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>96.26808807330328</v>
       </c>
       <c r="J27" t="n">
-        <v>260.6417864517297</v>
+        <v>135.811661464725</v>
       </c>
       <c r="K27" t="n">
-        <v>406.3828765102958</v>
+        <v>543.3733361657439</v>
       </c>
       <c r="L27" t="n">
-        <v>648.6722988168017</v>
+        <v>1121.949280604653</v>
       </c>
       <c r="M27" t="n">
-        <v>1340.050741434457</v>
+        <v>1424.046476554859</v>
       </c>
       <c r="N27" t="n">
-        <v>1664.55219615895</v>
+        <v>1748.547931279352</v>
       </c>
       <c r="O27" t="n">
-        <v>2329.111531612081</v>
+        <v>2023.18357064852</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.197778268222</v>
+        <v>2539.5479582582</v>
       </c>
       <c r="Q27" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R27" t="n">
         <v>2624.049592443911</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>360.7045236857022</v>
+        <v>498.2026643332287</v>
       </c>
       <c r="C28" t="n">
-        <v>360.7045236857022</v>
+        <v>498.2026643332287</v>
       </c>
       <c r="D28" t="n">
-        <v>325.3337941257369</v>
+        <v>382.4850493303538</v>
       </c>
       <c r="E28" t="n">
-        <v>325.3337941257369</v>
+        <v>249.5164989374038</v>
       </c>
       <c r="F28" t="n">
-        <v>193.3883898172697</v>
+        <v>249.5164989374038</v>
       </c>
       <c r="G28" t="n">
-        <v>193.3883898172697</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="H28" t="n">
-        <v>193.3883898172697</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="I28" t="n">
         <v>96.26808807330328</v>
@@ -6385,19 +6385,19 @@
         <v>122.0761260353842</v>
       </c>
       <c r="K28" t="n">
-        <v>284.9008822314448</v>
+        <v>284.9008822314449</v>
       </c>
       <c r="L28" t="n">
-        <v>544.6907879016018</v>
+        <v>544.6907879016019</v>
       </c>
       <c r="M28" t="n">
-        <v>828.1957254747171</v>
+        <v>828.1957254747172</v>
       </c>
       <c r="N28" t="n">
-        <v>1110.742442131334</v>
+        <v>1110.742442131335</v>
       </c>
       <c r="O28" t="n">
-        <v>1356.82190697978</v>
+        <v>1356.821906979781</v>
       </c>
       <c r="P28" t="n">
         <v>1545.978700806854</v>
@@ -6406,28 +6406,28 @@
         <v>1598.012201500647</v>
       </c>
       <c r="R28" t="n">
-        <v>1501.088825627733</v>
+        <v>1598.012201500647</v>
       </c>
       <c r="S28" t="n">
-        <v>1315.806074553279</v>
+        <v>1598.012201500647</v>
       </c>
       <c r="T28" t="n">
-        <v>1315.806074553279</v>
+        <v>1598.012201500647</v>
       </c>
       <c r="U28" t="n">
-        <v>1041.62101719046</v>
+        <v>1598.012201500647</v>
       </c>
       <c r="V28" t="n">
-        <v>801.8810721740165</v>
+        <v>1358.272256484204</v>
       </c>
       <c r="W28" t="n">
-        <v>527.408445326499</v>
+        <v>1083.799629636686</v>
       </c>
       <c r="X28" t="n">
-        <v>527.408445326499</v>
+        <v>870.7546219281121</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.408445326499</v>
+        <v>664.9065859740252</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2414.385148214977</v>
+        <v>2399.440605025534</v>
       </c>
       <c r="C29" t="n">
-        <v>2045.422631274565</v>
+        <v>2030.478088085122</v>
       </c>
       <c r="D29" t="n">
         <v>1687.156932667815</v>
@@ -6449,64 +6449,64 @@
         <v>1301.36868006957</v>
       </c>
       <c r="F29" t="n">
-        <v>905.327318469406</v>
+        <v>890.3827752799629</v>
       </c>
       <c r="G29" t="n">
-        <v>489.1622355825971</v>
+        <v>474.2176923931539</v>
       </c>
       <c r="H29" t="n">
-        <v>180.3887102267622</v>
+        <v>165.4441670373191</v>
       </c>
       <c r="I29" t="n">
-        <v>96.26808807330328</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J29" t="n">
-        <v>361.6624738943024</v>
+        <v>361.6624738943028</v>
       </c>
       <c r="K29" t="n">
-        <v>880.1646660902927</v>
+        <v>880.1646660902932</v>
       </c>
       <c r="L29" t="n">
         <v>1575.689112151772</v>
       </c>
       <c r="M29" t="n">
-        <v>2366.200617081631</v>
+        <v>2366.200617081632</v>
       </c>
       <c r="N29" t="n">
-        <v>3154.871427069776</v>
+        <v>3154.871427069777</v>
       </c>
       <c r="O29" t="n">
-        <v>3854.403271039755</v>
+        <v>3854.403271039756</v>
       </c>
       <c r="P29" t="n">
-        <v>4413.763132719398</v>
+        <v>4413.763132719399</v>
       </c>
       <c r="Q29" t="n">
-        <v>4756.597333965678</v>
+        <v>4756.597333965679</v>
       </c>
       <c r="R29" t="n">
-        <v>4813.404403665164</v>
+        <v>4813.404403665165</v>
       </c>
       <c r="S29" t="n">
-        <v>4678.215366816244</v>
+        <v>4678.215366816245</v>
       </c>
       <c r="T29" t="n">
-        <v>4482.399162606431</v>
+        <v>4467.454619416989</v>
       </c>
       <c r="U29" t="n">
-        <v>4233.477077940232</v>
+        <v>4213.836732072281</v>
       </c>
       <c r="V29" t="n">
-        <v>3902.414190596662</v>
+        <v>3897.718387918153</v>
       </c>
       <c r="W29" t="n">
-        <v>3549.645535326547</v>
+        <v>3544.949732648039</v>
       </c>
       <c r="X29" t="n">
-        <v>3191.124320254911</v>
+        <v>3176.179777065468</v>
       </c>
       <c r="Y29" t="n">
-        <v>2800.984988279099</v>
+        <v>2786.040445089656</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I30" t="n">
-        <v>96.26808807330328</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J30" t="n">
-        <v>260.6417864517297</v>
+        <v>135.811661464725</v>
       </c>
       <c r="K30" t="n">
-        <v>668.2034611527486</v>
+        <v>281.5527515232911</v>
       </c>
       <c r="L30" t="n">
-        <v>910.4928834592545</v>
+        <v>890.9741156802218</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.59007940946</v>
+        <v>1654.119324742927</v>
       </c>
       <c r="N30" t="n">
-        <v>1846.499377384422</v>
+        <v>1978.62077946742</v>
       </c>
       <c r="O30" t="n">
-        <v>2121.13501675359</v>
+        <v>2338.461711602058</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.221263409732</v>
+        <v>2539.5479582582</v>
       </c>
       <c r="Q30" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R30" t="n">
         <v>2624.049592443911</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.1277631783461</v>
+        <v>105.4472272743168</v>
       </c>
       <c r="C31" t="n">
-        <v>596.1361234398823</v>
+        <v>105.4472272743168</v>
       </c>
       <c r="D31" t="n">
-        <v>460.9640272169898</v>
+        <v>105.4472272743168</v>
       </c>
       <c r="E31" t="n">
-        <v>460.9640272169898</v>
+        <v>105.4472272743168</v>
       </c>
       <c r="F31" t="n">
-        <v>329.0186229085227</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="G31" t="n">
-        <v>329.0186229085227</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="H31" t="n">
-        <v>193.3883898172697</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="I31" t="n">
-        <v>96.26808807330328</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J31" t="n">
         <v>122.0761260353842</v>
@@ -6625,7 +6625,7 @@
         <v>284.9008822314448</v>
       </c>
       <c r="L31" t="n">
-        <v>544.6907879016018</v>
+        <v>544.6907879016019</v>
       </c>
       <c r="M31" t="n">
         <v>828.1957254747171</v>
@@ -6649,22 +6649,22 @@
         <v>1315.806074553278</v>
       </c>
       <c r="T31" t="n">
-        <v>1315.806074553278</v>
+        <v>1106.889864209671</v>
       </c>
       <c r="U31" t="n">
-        <v>1315.806074553278</v>
+        <v>832.7048068468521</v>
       </c>
       <c r="V31" t="n">
-        <v>1129.876692527717</v>
+        <v>592.9648618304084</v>
       </c>
       <c r="W31" t="n">
-        <v>1129.876692527717</v>
+        <v>318.4922349828909</v>
       </c>
       <c r="X31" t="n">
-        <v>916.8316848191425</v>
+        <v>105.4472272743168</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.8316848191425</v>
+        <v>105.4472272743168</v>
       </c>
     </row>
     <row r="32">
@@ -6692,52 +6692,52 @@
         <v>489.1622355825971</v>
       </c>
       <c r="H32" t="n">
-        <v>180.3887102267622</v>
+        <v>180.3887102267623</v>
       </c>
       <c r="I32" t="n">
-        <v>96.26808807330328</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J32" t="n">
-        <v>361.6624738943019</v>
+        <v>361.6624738943028</v>
       </c>
       <c r="K32" t="n">
-        <v>880.1646660902925</v>
+        <v>880.1646660902929</v>
       </c>
       <c r="L32" t="n">
         <v>1575.689112151772</v>
       </c>
       <c r="M32" t="n">
-        <v>2366.200617081631</v>
+        <v>2366.200617081632</v>
       </c>
       <c r="N32" t="n">
-        <v>3154.871427069776</v>
+        <v>3154.871427069777</v>
       </c>
       <c r="O32" t="n">
-        <v>3854.403271039754</v>
+        <v>3854.403271039755</v>
       </c>
       <c r="P32" t="n">
-        <v>4413.763132719397</v>
+        <v>4413.763132719398</v>
       </c>
       <c r="Q32" t="n">
-        <v>4756.597333965678</v>
+        <v>4756.597333965679</v>
       </c>
       <c r="R32" t="n">
-        <v>4813.404403665164</v>
+        <v>4813.404403665165</v>
       </c>
       <c r="S32" t="n">
-        <v>4678.215366816244</v>
+        <v>4678.215366816245</v>
       </c>
       <c r="T32" t="n">
-        <v>4467.454619416988</v>
+        <v>4467.454619416989</v>
       </c>
       <c r="U32" t="n">
-        <v>4213.83673207228</v>
+        <v>4263.366164319118</v>
       </c>
       <c r="V32" t="n">
-        <v>3882.773844728709</v>
+        <v>3932.303276975548</v>
       </c>
       <c r="W32" t="n">
-        <v>3530.005189458595</v>
+        <v>3579.534621705433</v>
       </c>
       <c r="X32" t="n">
         <v>3206.068863444354</v>
@@ -6774,31 +6774,31 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I33" t="n">
-        <v>96.26808807330328</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J33" t="n">
         <v>260.6417864517297</v>
       </c>
       <c r="K33" t="n">
-        <v>406.3828765102958</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L33" t="n">
-        <v>829.9770306257615</v>
+        <v>910.4928834592546</v>
       </c>
       <c r="M33" t="n">
-        <v>1132.074226575967</v>
+        <v>1212.59007940946</v>
       </c>
       <c r="N33" t="n">
-        <v>1456.57568130046</v>
+        <v>1537.091534133953</v>
       </c>
       <c r="O33" t="n">
-        <v>2121.13501675359</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.221263409732</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q33" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R33" t="n">
         <v>2624.049592443911</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.6333144453065</v>
+        <v>653.6333144453057</v>
       </c>
       <c r="C34" t="n">
-        <v>554.3147332768557</v>
+        <v>554.3147332768549</v>
       </c>
       <c r="D34" t="n">
-        <v>473.8156956239761</v>
+        <v>473.8156956239752</v>
       </c>
       <c r="E34" t="n">
-        <v>395.520203801039</v>
+        <v>395.5202038010382</v>
       </c>
       <c r="F34" t="n">
-        <v>318.2478580625848</v>
+        <v>318.2478580625839</v>
       </c>
       <c r="G34" t="n">
-        <v>219.6725057684971</v>
+        <v>219.6725057684965</v>
       </c>
       <c r="H34" t="n">
-        <v>138.7153312472568</v>
+        <v>138.7153312472565</v>
       </c>
       <c r="I34" t="n">
-        <v>96.26808807330328</v>
+        <v>96.2680880733033</v>
       </c>
       <c r="J34" t="n">
         <v>175.6611907398537</v>
       </c>
       <c r="K34" t="n">
-        <v>392.0710116403839</v>
+        <v>392.0710116403841</v>
       </c>
       <c r="L34" t="n">
-        <v>705.4459820150105</v>
+        <v>705.4459820150107</v>
       </c>
       <c r="M34" t="n">
         <v>1042.535984292595</v>
@@ -6889,19 +6889,19 @@
         <v>1699.589557555466</v>
       </c>
       <c r="U34" t="n">
-        <v>1480.077558762661</v>
+        <v>1480.07755876266</v>
       </c>
       <c r="V34" t="n">
-        <v>1295.01067231623</v>
+        <v>1295.010672316229</v>
       </c>
       <c r="W34" t="n">
         <v>1075.211104038725</v>
       </c>
       <c r="X34" t="n">
-        <v>916.8391549001642</v>
+        <v>916.8391549001635</v>
       </c>
       <c r="Y34" t="n">
-        <v>765.6641775160901</v>
+        <v>765.6641775160894</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2429.32969140442</v>
+        <v>2379.800259157581</v>
       </c>
       <c r="C35" t="n">
-        <v>2060.367174464008</v>
+        <v>2010.83774221717</v>
       </c>
       <c r="D35" t="n">
-        <v>1702.101475857258</v>
+        <v>1652.572043610419</v>
       </c>
       <c r="E35" t="n">
-        <v>1316.313223259014</v>
+        <v>1266.783791012175</v>
       </c>
       <c r="F35" t="n">
-        <v>905.327318469406</v>
+        <v>855.7978862225675</v>
       </c>
       <c r="G35" t="n">
-        <v>489.1622355825971</v>
+        <v>439.6328033357586</v>
       </c>
       <c r="H35" t="n">
-        <v>180.3887102267623</v>
+        <v>130.8592779799237</v>
       </c>
       <c r="I35" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J35" t="n">
-        <v>361.6624738943025</v>
+        <v>361.6624738943019</v>
       </c>
       <c r="K35" t="n">
-        <v>880.1646660902928</v>
+        <v>880.1646660902925</v>
       </c>
       <c r="L35" t="n">
         <v>1575.689112151772</v>
@@ -6959,28 +6959,28 @@
         <v>4756.597333965678</v>
       </c>
       <c r="R35" t="n">
-        <v>4813.404403665165</v>
+        <v>4813.404403665164</v>
       </c>
       <c r="S35" t="n">
-        <v>4678.215366816245</v>
+        <v>4678.215366816244</v>
       </c>
       <c r="T35" t="n">
-        <v>4467.454619416989</v>
+        <v>4467.454619416988</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.836732072281</v>
+        <v>4213.83673207228</v>
       </c>
       <c r="V35" t="n">
-        <v>3882.77384472871</v>
+        <v>3882.773844728709</v>
       </c>
       <c r="W35" t="n">
-        <v>3530.005189458596</v>
+        <v>3530.005189458595</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.539431197516</v>
+        <v>3156.539431197515</v>
       </c>
       <c r="Y35" t="n">
-        <v>2766.400099221704</v>
+        <v>2766.400099221703</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I36" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J36" t="n">
-        <v>135.811661464725</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K36" t="n">
-        <v>543.3733361657439</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L36" t="n">
-        <v>966.829228455714</v>
+        <v>910.4928834592546</v>
       </c>
       <c r="M36" t="n">
-        <v>1729.974437518419</v>
+        <v>1212.59007940946</v>
       </c>
       <c r="N36" t="n">
-        <v>2054.475892242912</v>
+        <v>1540.571416420861</v>
       </c>
       <c r="O36" t="n">
-        <v>2329.11153161208</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P36" t="n">
-        <v>2530.197778268222</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q36" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R36" t="n">
         <v>2624.049592443911</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.6333144453063</v>
+        <v>653.6333144453062</v>
       </c>
       <c r="C37" t="n">
-        <v>554.3147332768553</v>
+        <v>554.3147332768552</v>
       </c>
       <c r="D37" t="n">
-        <v>473.8156956239756</v>
+        <v>473.8156956239755</v>
       </c>
       <c r="E37" t="n">
-        <v>395.5202038010385</v>
+        <v>395.5202038010384</v>
       </c>
       <c r="F37" t="n">
-        <v>318.2478580625842</v>
+        <v>318.2478580625841</v>
       </c>
       <c r="G37" t="n">
         <v>219.6725057684965</v>
       </c>
       <c r="H37" t="n">
-        <v>138.7153312472568</v>
+        <v>138.7153312472565</v>
       </c>
       <c r="I37" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J37" t="n">
-        <v>175.6611907398537</v>
+        <v>175.6611907398539</v>
       </c>
       <c r="K37" t="n">
-        <v>392.0710116403839</v>
+        <v>392.0710116403841</v>
       </c>
       <c r="L37" t="n">
-        <v>705.4459820150106</v>
+        <v>705.4459820150107</v>
       </c>
       <c r="M37" t="n">
-        <v>1042.535984292595</v>
+        <v>1042.535984292596</v>
       </c>
       <c r="N37" t="n">
         <v>1378.667765653683</v>
@@ -7135,10 +7135,10 @@
         <v>1075.211104038725</v>
       </c>
       <c r="X37" t="n">
-        <v>916.839154900164</v>
+        <v>916.8391549001639</v>
       </c>
       <c r="Y37" t="n">
-        <v>765.6641775160899</v>
+        <v>765.6641775160898</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>489.1622355825971</v>
       </c>
       <c r="H38" t="n">
-        <v>180.3887102267623</v>
+        <v>180.3887102267622</v>
       </c>
       <c r="I38" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J38" t="n">
-        <v>361.6624738943028</v>
+        <v>361.6624738943019</v>
       </c>
       <c r="K38" t="n">
-        <v>880.1646660902929</v>
+        <v>880.1646660902925</v>
       </c>
       <c r="L38" t="n">
         <v>1575.689112151772</v>
       </c>
       <c r="M38" t="n">
-        <v>2366.200617081632</v>
+        <v>2366.200617081631</v>
       </c>
       <c r="N38" t="n">
-        <v>3154.871427069777</v>
+        <v>3154.871427069776</v>
       </c>
       <c r="O38" t="n">
         <v>3854.403271039755</v>
@@ -7193,13 +7193,13 @@
         <v>4413.763132719398</v>
       </c>
       <c r="Q38" t="n">
-        <v>4756.597333965679</v>
+        <v>4756.597333965678</v>
       </c>
       <c r="R38" t="n">
-        <v>4813.404403665165</v>
+        <v>4813.404403665164</v>
       </c>
       <c r="S38" t="n">
-        <v>4678.215366816245</v>
+        <v>4727.744799063082</v>
       </c>
       <c r="T38" t="n">
         <v>4516.984051663826</v>
@@ -7248,31 +7248,31 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I39" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J39" t="n">
-        <v>135.811661464725</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K39" t="n">
-        <v>281.5527515232911</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L39" t="n">
-        <v>890.9741156802218</v>
+        <v>910.4928834592546</v>
       </c>
       <c r="M39" t="n">
-        <v>1340.050741434457</v>
+        <v>1212.59007940946</v>
       </c>
       <c r="N39" t="n">
-        <v>1664.55219615895</v>
+        <v>1540.571416420861</v>
       </c>
       <c r="O39" t="n">
-        <v>2329.11153161208</v>
+        <v>1815.207055790029</v>
       </c>
       <c r="P39" t="n">
-        <v>2530.197778268222</v>
+        <v>2331.571443399709</v>
       </c>
       <c r="Q39" t="n">
-        <v>2614.699412453934</v>
+        <v>2624.049592443911</v>
       </c>
       <c r="R39" t="n">
         <v>2624.049592443911</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.6333144453063</v>
+        <v>653.6333144453064</v>
       </c>
       <c r="C40" t="n">
-        <v>554.3147332768557</v>
+        <v>554.3147332768556</v>
       </c>
       <c r="D40" t="n">
-        <v>473.8156956239761</v>
+        <v>473.8156956239759</v>
       </c>
       <c r="E40" t="n">
-        <v>395.520203801039</v>
+        <v>395.5202038010389</v>
       </c>
       <c r="F40" t="n">
-        <v>318.2478580625848</v>
+        <v>318.2478580625841</v>
       </c>
       <c r="G40" t="n">
-        <v>219.6725057684971</v>
+        <v>219.6725057684964</v>
       </c>
       <c r="H40" t="n">
-        <v>138.7153312472568</v>
+        <v>138.7153312472564</v>
       </c>
       <c r="I40" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J40" t="n">
-        <v>175.6611907398533</v>
+        <v>175.6611907398539</v>
       </c>
       <c r="K40" t="n">
-        <v>392.0710116403836</v>
+        <v>392.0710116403841</v>
       </c>
       <c r="L40" t="n">
-        <v>705.4459820150103</v>
+        <v>705.4459820150107</v>
       </c>
       <c r="M40" t="n">
         <v>1042.535984292595</v>
@@ -7351,10 +7351,10 @@
         <v>1921.074153738141</v>
       </c>
       <c r="Q40" t="n">
-        <v>2026.692719136404</v>
+        <v>2026.692719136403</v>
       </c>
       <c r="R40" t="n">
-        <v>1984.442401833503</v>
+        <v>1984.442401833502</v>
       </c>
       <c r="S40" t="n">
         <v>1853.832709329061</v>
@@ -7372,7 +7372,7 @@
         <v>1075.211104038725</v>
       </c>
       <c r="X40" t="n">
-        <v>916.839154900164</v>
+        <v>916.8391549001641</v>
       </c>
       <c r="Y40" t="n">
         <v>765.66417751609</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2379.800259157582</v>
+        <v>2379.800259157581</v>
       </c>
       <c r="C41" t="n">
-        <v>2010.837742217171</v>
+        <v>2010.83774221717</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.57204361042</v>
+        <v>1652.572043610419</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.783791012176</v>
+        <v>1266.783791012175</v>
       </c>
       <c r="F41" t="n">
-        <v>905.327318469406</v>
+        <v>855.7978862225675</v>
       </c>
       <c r="G41" t="n">
         <v>489.1622355825971</v>
@@ -7406,55 +7406,55 @@
         <v>180.3887102267622</v>
       </c>
       <c r="I41" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J41" t="n">
-        <v>361.6624738943025</v>
+        <v>361.6624738943024</v>
       </c>
       <c r="K41" t="n">
-        <v>880.1646660902934</v>
+        <v>880.1646660902927</v>
       </c>
       <c r="L41" t="n">
-        <v>1575.689112151773</v>
+        <v>1575.689112151772</v>
       </c>
       <c r="M41" t="n">
-        <v>2366.200617081632</v>
+        <v>2366.200617081631</v>
       </c>
       <c r="N41" t="n">
-        <v>3154.871427069777</v>
+        <v>3154.871427069776</v>
       </c>
       <c r="O41" t="n">
-        <v>3854.403271039756</v>
+        <v>3854.403271039755</v>
       </c>
       <c r="P41" t="n">
-        <v>4413.763132719399</v>
+        <v>4413.763132719398</v>
       </c>
       <c r="Q41" t="n">
-        <v>4756.597333965679</v>
+        <v>4756.597333965678</v>
       </c>
       <c r="R41" t="n">
-        <v>4813.404403665165</v>
+        <v>4813.404403665164</v>
       </c>
       <c r="S41" t="n">
-        <v>4678.215366816245</v>
+        <v>4678.215366816244</v>
       </c>
       <c r="T41" t="n">
-        <v>4467.454619416989</v>
+        <v>4467.454619416988</v>
       </c>
       <c r="U41" t="n">
-        <v>4213.836732072281</v>
+        <v>4213.83673207228</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.77384472871</v>
+        <v>3882.773844728709</v>
       </c>
       <c r="W41" t="n">
-        <v>3530.005189458596</v>
+        <v>3530.005189458595</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.539431197516</v>
+        <v>3156.539431197515</v>
       </c>
       <c r="Y41" t="n">
-        <v>2766.400099221704</v>
+        <v>2766.400099221703</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I42" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J42" t="n">
-        <v>135.811661464725</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K42" t="n">
-        <v>281.5527515232912</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L42" t="n">
-        <v>523.8421738297973</v>
+        <v>910.4928834592546</v>
       </c>
       <c r="M42" t="n">
-        <v>1024.772600480919</v>
+        <v>1212.59007940946</v>
       </c>
       <c r="N42" t="n">
-        <v>1349.274055205412</v>
+        <v>1537.091534133953</v>
       </c>
       <c r="O42" t="n">
-        <v>2013.833390658543</v>
+        <v>1811.727173503121</v>
       </c>
       <c r="P42" t="n">
-        <v>2530.197778268222</v>
+        <v>2328.091561112801</v>
       </c>
       <c r="Q42" t="n">
         <v>2614.699412453934</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.6333144453064</v>
+        <v>653.6333144453062</v>
       </c>
       <c r="C43" t="n">
-        <v>554.3147332768555</v>
+        <v>554.3147332768552</v>
       </c>
       <c r="D43" t="n">
-        <v>473.8156956239757</v>
+        <v>473.8156956239755</v>
       </c>
       <c r="E43" t="n">
-        <v>395.5202038010386</v>
+        <v>395.5202038010384</v>
       </c>
       <c r="F43" t="n">
-        <v>318.2478580625843</v>
+        <v>318.2478580625841</v>
       </c>
       <c r="G43" t="n">
-        <v>219.6725057684966</v>
+        <v>219.6725057684964</v>
       </c>
       <c r="H43" t="n">
         <v>138.7153312472568</v>
       </c>
       <c r="I43" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J43" t="n">
-        <v>175.6611907398541</v>
+        <v>175.6611907398537</v>
       </c>
       <c r="K43" t="n">
-        <v>392.0710116403844</v>
+        <v>392.071011640384</v>
       </c>
       <c r="L43" t="n">
-        <v>705.4459820150109</v>
+        <v>705.4459820150107</v>
       </c>
       <c r="M43" t="n">
-        <v>1042.535984292596</v>
+        <v>1042.535984292595</v>
       </c>
       <c r="N43" t="n">
-        <v>1378.667765653683</v>
+        <v>1378.667765653682</v>
       </c>
       <c r="O43" t="n">
         <v>1678.332295206598</v>
@@ -7594,10 +7594,10 @@
         <v>1984.442401833503</v>
       </c>
       <c r="S43" t="n">
-        <v>1853.832709329062</v>
+        <v>1853.832709329061</v>
       </c>
       <c r="T43" t="n">
-        <v>1699.589557555467</v>
+        <v>1699.589557555466</v>
       </c>
       <c r="U43" t="n">
         <v>1480.077558762661</v>
@@ -7609,10 +7609,10 @@
         <v>1075.211104038725</v>
       </c>
       <c r="X43" t="n">
-        <v>916.8391549001641</v>
+        <v>916.8391549001639</v>
       </c>
       <c r="Y43" t="n">
-        <v>765.66417751609</v>
+        <v>765.6641775160898</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.32969140442</v>
+        <v>2379.800259157581</v>
       </c>
       <c r="C44" t="n">
-        <v>2060.367174464008</v>
+        <v>2010.83774221717</v>
       </c>
       <c r="D44" t="n">
-        <v>1702.101475857258</v>
+        <v>1652.572043610419</v>
       </c>
       <c r="E44" t="n">
-        <v>1316.313223259014</v>
+        <v>1266.783791012175</v>
       </c>
       <c r="F44" t="n">
-        <v>905.327318469406</v>
+        <v>855.7978862225675</v>
       </c>
       <c r="G44" t="n">
-        <v>489.1622355825971</v>
+        <v>439.6328033357586</v>
       </c>
       <c r="H44" t="n">
         <v>180.3887102267622</v>
       </c>
       <c r="I44" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J44" t="n">
-        <v>361.6624738943025</v>
+        <v>361.6624738943024</v>
       </c>
       <c r="K44" t="n">
-        <v>880.1646660902929</v>
+        <v>880.1646660902927</v>
       </c>
       <c r="L44" t="n">
         <v>1575.689112151772</v>
       </c>
       <c r="M44" t="n">
-        <v>2366.200617081632</v>
+        <v>2366.200617081631</v>
       </c>
       <c r="N44" t="n">
-        <v>3154.871427069777</v>
+        <v>3154.871427069776</v>
       </c>
       <c r="O44" t="n">
         <v>3854.403271039755</v>
@@ -7670,28 +7670,28 @@
         <v>4756.597333965678</v>
       </c>
       <c r="R44" t="n">
-        <v>4813.404403665165</v>
+        <v>4813.404403665164</v>
       </c>
       <c r="S44" t="n">
-        <v>4678.215366816245</v>
+        <v>4678.215366816244</v>
       </c>
       <c r="T44" t="n">
-        <v>4467.454619416989</v>
+        <v>4467.454619416988</v>
       </c>
       <c r="U44" t="n">
-        <v>4213.836732072281</v>
+        <v>4213.83673207228</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.77384472871</v>
+        <v>3882.773844728709</v>
       </c>
       <c r="W44" t="n">
-        <v>3530.005189458596</v>
+        <v>3530.005189458595</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.539431197516</v>
+        <v>3156.539431197515</v>
       </c>
       <c r="Y44" t="n">
-        <v>2766.400099221704</v>
+        <v>2766.400099221703</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.1753737346811</v>
       </c>
       <c r="I45" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J45" t="n">
-        <v>260.6417864517298</v>
+        <v>260.6417864517297</v>
       </c>
       <c r="K45" t="n">
-        <v>668.2034611527488</v>
+        <v>668.2034611527486</v>
       </c>
       <c r="L45" t="n">
-        <v>910.4928834592548</v>
+        <v>910.4928834592546</v>
       </c>
       <c r="M45" t="n">
-        <v>1673.63809252196</v>
+        <v>1212.59007940946</v>
       </c>
       <c r="N45" t="n">
-        <v>1998.139547246453</v>
+        <v>1537.091534133953</v>
       </c>
       <c r="O45" t="n">
-        <v>2272.775186615621</v>
+        <v>1811.727173503121</v>
       </c>
       <c r="P45" t="n">
-        <v>2473.861433271763</v>
+        <v>2328.091561112801</v>
       </c>
       <c r="Q45" t="n">
         <v>2614.699412453934</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.6333144453067</v>
+        <v>653.6333144453065</v>
       </c>
       <c r="C46" t="n">
-        <v>554.3147332768558</v>
+        <v>554.3147332768556</v>
       </c>
       <c r="D46" t="n">
-        <v>473.8156956239761</v>
+        <v>473.8156956239759</v>
       </c>
       <c r="E46" t="n">
-        <v>395.5202038010391</v>
+        <v>395.5202038010389</v>
       </c>
       <c r="F46" t="n">
-        <v>318.2478580625848</v>
+        <v>318.2478580625846</v>
       </c>
       <c r="G46" t="n">
-        <v>219.6725057684971</v>
+        <v>219.6725057684969</v>
       </c>
       <c r="H46" t="n">
         <v>138.7153312472568</v>
       </c>
       <c r="I46" t="n">
-        <v>96.2680880733033</v>
+        <v>96.26808807330328</v>
       </c>
       <c r="J46" t="n">
-        <v>175.6611907398537</v>
+        <v>175.6611907398539</v>
       </c>
       <c r="K46" t="n">
-        <v>392.0710116403839</v>
+        <v>392.071011640384</v>
       </c>
       <c r="L46" t="n">
-        <v>705.4459820150103</v>
+        <v>705.4459820150107</v>
       </c>
       <c r="M46" t="n">
         <v>1042.535984292595</v>
@@ -7819,13 +7819,13 @@
         <v>1378.667765653682</v>
       </c>
       <c r="O46" t="n">
-        <v>1678.332295206597</v>
+        <v>1678.332295206598</v>
       </c>
       <c r="P46" t="n">
-        <v>1921.07415373814</v>
+        <v>1921.074153738141</v>
       </c>
       <c r="Q46" t="n">
-        <v>2026.692719136403</v>
+        <v>2026.692719136404</v>
       </c>
       <c r="R46" t="n">
         <v>1984.442401833503</v>
@@ -7834,22 +7834,22 @@
         <v>1853.832709329061</v>
       </c>
       <c r="T46" t="n">
-        <v>1699.589557555467</v>
+        <v>1699.589557555466</v>
       </c>
       <c r="U46" t="n">
-        <v>1480.077558762661</v>
+        <v>1480.07755876266</v>
       </c>
       <c r="V46" t="n">
-        <v>1295.010672316231</v>
+        <v>1295.010672316229</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.211104038726</v>
+        <v>1075.211104038725</v>
       </c>
       <c r="X46" t="n">
-        <v>916.8391549001648</v>
+        <v>916.8391549001636</v>
       </c>
       <c r="Y46" t="n">
-        <v>765.6641775160904</v>
+        <v>765.6641775160901</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093848</v>
+        <v>333.358526823679</v>
       </c>
       <c r="N3" t="n">
         <v>118.4674613291454</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>182.5733142051932</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>242.0638463692166</v>
       </c>
       <c r="M6" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N6" t="n">
-        <v>249.5516248067154</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
-        <v>130.8188201934042</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>384.6266787135241</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>287.3057790257749</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881847</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>124.8062183583221</v>
       </c>
       <c r="P15" t="n">
-        <v>107.1006639220013</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>36.07704355881847</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729823</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.4435289518759</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3.515032613039068</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>36.07704355881847</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>12.35249361146703</v>
+        <v>233.3082473984166</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>77.22849128992517</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>74.75061183223494</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>339.6833556892963</v>
       </c>
       <c r="M27" t="n">
-        <v>393.2133804721721</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>312.5331750004741</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>86.06595228835283</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>183.136092736323</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>3.515032613038557</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298318</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>182.9964343267314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.5150326130385</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>148.4640705091208</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3.5150326130385</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>36.07704355881846</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711651</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298227</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>200.8416471726426</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>204.1476940963851</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298315</v>
+        <v>65.71641987298227</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.90539898632218</v>
+        <v>204.1476940963851</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>176.563037653646</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>163.9778785703365</v>
       </c>
       <c r="D13" t="n">
         <v>145.346530489921</v>
       </c>
       <c r="E13" t="n">
-        <v>143.1650201182778</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>142.1521054946399</v>
       </c>
       <c r="G13" t="n">
-        <v>163.2420819847169</v>
+        <v>163.242081984717</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>107.6752539557842</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>107.4802973434422</v>
       </c>
       <c r="S13" t="n">
-        <v>194.956078792967</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.3532034694291</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>12.75598042013957</v>
+        <v>248.8687007955367</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>222.4407128607458</v>
+        <v>91.54863204063099</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.3157108238034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>163.9778785703365</v>
       </c>
       <c r="D16" t="n">
         <v>145.346530489921</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>143.1650201182778</v>
       </c>
       <c r="F16" t="n">
         <v>142.1521054946399</v>
       </c>
       <c r="G16" t="n">
-        <v>163.2420819847169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.8000859895978</v>
       </c>
       <c r="I16" t="n">
-        <v>107.6752539557841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>87.24587409073139</v>
+        <v>282.9693620184477</v>
       </c>
       <c r="V16" t="n">
-        <v>248.8687007955366</v>
+        <v>239.360362980453</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>222.4407128607458</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>108.3698639632289</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>143.1650201182778</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>145.8000859895978</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>107.6752539557841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>107.4802973434422</v>
       </c>
       <c r="S19" t="n">
         <v>194.956078792967</v>
@@ -23944,19 +23944,19 @@
         <v>218.3532034694291</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.9693620184477</v>
       </c>
       <c r="V19" t="n">
         <v>248.8687007955366</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2540558082997</v>
+        <v>43.78902860907485</v>
       </c>
       <c r="X19" t="n">
-        <v>222.4407128607458</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>215.3157108238034</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>163.9778785703364</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>145.346530489921</v>
       </c>
       <c r="E22" t="n">
-        <v>143.1650201182777</v>
+        <v>143.1650201182778</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>142.1521054946398</v>
       </c>
       <c r="G22" t="n">
         <v>163.2420819847169</v>
       </c>
       <c r="H22" t="n">
-        <v>145.8000859895977</v>
+        <v>145.8000859895978</v>
       </c>
       <c r="I22" t="n">
         <v>107.6752539557841</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.4802973434422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>218.353203469429</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>223.9904471955478</v>
+        <v>248.8687007955366</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>20.93672940218351</v>
       </c>
       <c r="X22" t="n">
-        <v>222.4407128607457</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>149.1827808127877</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.369922360729</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.3570077370911</v>
       </c>
       <c r="G25" t="n">
-        <v>148.4469842271682</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>92.8801561982354</v>
+        <v>92.88015619823535</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>92.68519958589344</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>180.1609810354183</v>
+        <v>69.41356421800593</v>
       </c>
       <c r="T25" t="n">
         <v>203.5581057118803</v>
       </c>
       <c r="U25" t="n">
-        <v>53.03011028013356</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>234.0736030379879</v>
@@ -24604,22 +24604,22 @@
         <v>152.4517233410791</v>
       </c>
       <c r="D28" t="n">
-        <v>98.80335299629792</v>
+        <v>19.25993640781749</v>
       </c>
       <c r="E28" t="n">
-        <v>131.6388648890204</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>130.6259502653825</v>
       </c>
       <c r="G28" t="n">
-        <v>151.7159267554595</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>134.2739307603404</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.1490987265267</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>95.95414211418478</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.4299235637097</v>
       </c>
       <c r="T28" t="n">
         <v>206.8270482401717</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>271.4432067891902</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>210.9145576314884</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>203.789555594546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>165.0368824243886</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>152.4517233410791</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.8203752606636</v>
       </c>
       <c r="E31" t="n">
         <v>131.6388648890204</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>121.5386024563792</v>
       </c>
       <c r="G31" t="n">
         <v>151.7159267554595</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.2739307603404</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.14909872652674</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24889,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>206.8270482401717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>271.4432067891903</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>53.27245736097321</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>271.7279005790423</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058919</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
-        <v>254629.9549758676</v>
+        <v>254629.9549758674</v>
       </c>
       <c r="F2" t="n">
         <v>254629.9549758676</v>
       </c>
       <c r="G2" t="n">
+        <v>254629.9549758676</v>
+      </c>
+      <c r="H2" t="n">
         <v>254629.9549758671</v>
-      </c>
-      <c r="H2" t="n">
-        <v>254629.9549758672</v>
       </c>
       <c r="I2" t="n">
         <v>257381.225315489</v>
@@ -26338,22 +26338,22 @@
         <v>256773.3385162663</v>
       </c>
       <c r="K2" t="n">
-        <v>256773.3385162664</v>
+        <v>256773.3385162663</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058919</v>
+        <v>266838.575205892</v>
       </c>
       <c r="M2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="N2" t="n">
+        <v>266838.575205892</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058917</v>
       </c>
-      <c r="N2" t="n">
-        <v>266838.5752058918</v>
-      </c>
-      <c r="O2" t="n">
-        <v>266838.5752058918</v>
-      </c>
       <c r="P2" t="n">
-        <v>266838.5752058918</v>
+        <v>266838.5752058917</v>
       </c>
     </row>
     <row r="3">
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>431478.9618558294</v>
+        <v>431478.9618558295</v>
       </c>
       <c r="E3" t="n">
         <v>516456.2163232839</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.943512183468556e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>11836.07820603894</v>
+        <v>11836.07820603897</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>68875.69873124988</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>147332.9129213122</v>
       </c>
       <c r="M3" t="n">
-        <v>131844.8222332172</v>
+        <v>131844.822233217</v>
       </c>
       <c r="N3" t="n">
-        <v>11836.07820603899</v>
+        <v>11836.078206039</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>32748.63392808316</v>
+        <v>32748.63392808312</v>
       </c>
       <c r="F4" t="n">
         <v>32748.63392808316</v>
       </c>
       <c r="G4" t="n">
-        <v>32748.63392808319</v>
+        <v>32748.63392808316</v>
       </c>
       <c r="H4" t="n">
-        <v>32748.63392808324</v>
+        <v>32748.6339280832</v>
       </c>
       <c r="I4" t="n">
-        <v>37616.95841181446</v>
+        <v>37616.95841181447</v>
       </c>
       <c r="J4" t="n">
-        <v>36541.31341053208</v>
+        <v>36541.31341053211</v>
       </c>
       <c r="K4" t="n">
-        <v>36541.31341053212</v>
+        <v>36541.31341053206</v>
       </c>
       <c r="L4" t="n">
-        <v>54351.57273146544</v>
+        <v>54351.57273146538</v>
       </c>
       <c r="M4" t="n">
-        <v>54351.57273146538</v>
+        <v>54351.57273146542</v>
       </c>
       <c r="N4" t="n">
-        <v>54351.57273146539</v>
+        <v>54351.57273146542</v>
       </c>
       <c r="O4" t="n">
-        <v>54351.57273146538</v>
+        <v>54351.57273146541</v>
       </c>
       <c r="P4" t="n">
-        <v>54351.57273146538</v>
+        <v>54351.57273146542</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>91329.87233312156</v>
       </c>
       <c r="H5" t="n">
-        <v>91329.87233312157</v>
+        <v>91329.87233312156</v>
       </c>
       <c r="I5" t="n">
         <v>92573.68140650092</v>
@@ -26494,22 +26494,22 @@
         <v>92298.86467708999</v>
       </c>
       <c r="K5" t="n">
-        <v>92298.86467708999</v>
+        <v>92298.86467709001</v>
       </c>
       <c r="L5" t="n">
         <v>96849.2109444032</v>
       </c>
       <c r="M5" t="n">
-        <v>96849.2109444032</v>
+        <v>96849.21094440318</v>
       </c>
       <c r="N5" t="n">
         <v>96849.2109444032</v>
       </c>
       <c r="O5" t="n">
-        <v>96849.2109444032</v>
+        <v>96849.21094440318</v>
       </c>
       <c r="P5" t="n">
-        <v>96849.2109444032</v>
+        <v>96849.21094440318</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-198159.6038244404</v>
+        <v>-198159.6038244405</v>
       </c>
       <c r="C6" t="n">
-        <v>-87765.14894949101</v>
+        <v>-87765.14894949083</v>
       </c>
       <c r="D6" t="n">
         <v>-421990.2420351729</v>
       </c>
       <c r="E6" t="n">
-        <v>-385904.767608621</v>
+        <v>-385998.680071929</v>
       </c>
       <c r="F6" t="n">
-        <v>130551.4487146629</v>
+        <v>130457.5362513549</v>
       </c>
       <c r="G6" t="n">
-        <v>130551.4487146624</v>
+        <v>130457.536251355</v>
       </c>
       <c r="H6" t="n">
-        <v>130551.4487146623</v>
+        <v>130457.5362513544</v>
       </c>
       <c r="I6" t="n">
-        <v>115354.5072911347</v>
+        <v>115281.7584458238</v>
       </c>
       <c r="J6" t="n">
-        <v>59057.46169739441</v>
+        <v>58980.03679978182</v>
       </c>
       <c r="K6" t="n">
-        <v>127933.1604286443</v>
+        <v>127855.7355310318</v>
       </c>
       <c r="L6" t="n">
-        <v>-31695.12139128898</v>
+        <v>-31695.12139128881</v>
       </c>
       <c r="M6" t="n">
-        <v>-16207.03070319402</v>
+        <v>-16207.03070319361</v>
       </c>
       <c r="N6" t="n">
-        <v>103801.7133239842</v>
+        <v>103801.7133239844</v>
       </c>
       <c r="O6" t="n">
-        <v>115637.7915300233</v>
+        <v>115637.7915300231</v>
       </c>
       <c r="P6" t="n">
-        <v>115637.7915300232</v>
+        <v>115637.7915300231</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="F2" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="G2" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="H2" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="I2" t="n">
         <v>18.06404028584011</v>
       </c>
       <c r="J2" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="K2" t="n">
         <v>14.79509775754874</v>
       </c>
       <c r="L2" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="M2" t="n">
         <v>68.92142574186147</v>
       </c>
       <c r="N2" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="O2" t="n">
         <v>68.92142574186147</v>
@@ -26756,16 +26756,16 @@
         <v>820.7022324770709</v>
       </c>
       <c r="I3" t="n">
-        <v>820.7022324770709</v>
+        <v>820.702232477071</v>
       </c>
       <c r="J3" t="n">
-        <v>820.7022324770709</v>
+        <v>820.702232477071</v>
       </c>
       <c r="K3" t="n">
-        <v>820.7022324770709</v>
+        <v>820.702232477071</v>
       </c>
       <c r="L3" t="n">
-        <v>820.7022324770709</v>
+        <v>820.702232477071</v>
       </c>
       <c r="M3" t="n">
         <v>820.702232477071</v>
@@ -26774,10 +26774,10 @@
         <v>820.702232477071</v>
       </c>
       <c r="O3" t="n">
-        <v>820.7022324770711</v>
+        <v>820.702232477071</v>
       </c>
       <c r="P3" t="n">
-        <v>820.7022324770711</v>
+        <v>820.702232477071</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1203.351100916291</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.929390229335695e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>14.79509775754868</v>
+        <v>14.79509775754871</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.12632798431279</v>
+        <v>54.12632798431276</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754875</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>411.0452388028889</v>
+        <v>411.045238802889</v>
       </c>
       <c r="E4" t="n">
-        <v>529.0638281617355</v>
+        <v>529.0638281617354</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>411.0452388028889</v>
+        <v>411.045238802889</v>
       </c>
       <c r="M4" t="n">
-        <v>529.0638281617357</v>
+        <v>529.0638281617352</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.929390229335695e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>14.79509775754868</v>
+        <v>14.79509775754871</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>411.0452388028889</v>
+        <v>411.045238802889</v>
       </c>
       <c r="M4" t="n">
-        <v>529.0638281617355</v>
+        <v>529.0638281617354</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,16 +27391,16 @@
         <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
-        <v>75.28528753921177</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>134.3134028530445</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574641</v>
+        <v>265.5320880301074</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>84.43511112331628</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>30.36931130263784</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1319330596678</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>8.114410708933974</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
         <v>161.8582038473137</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27622,22 +27622,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I5" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X5" t="n">
-        <v>247.6812118321002</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.995904704387</v>
+        <v>380.5935353080219</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2940166796957</v>
@@ -27743,25 +27743,25 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>105.032700147116</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>207.8857598014525</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27798,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871617</v>
+        <v>6.228403429953714</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>126.6879292296162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>199.3678174268765</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>369.3687635994757</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>15.4236932637327</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.2620656957736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="C11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="D11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="E11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="F11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="G11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="H11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="I11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="T11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="U11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="V11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="W11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="X11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="C13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="D13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="E13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="F13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="G13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="H13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="I13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="J13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="K13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="L13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="M13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="N13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="O13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="P13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="R13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="S13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="T13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="U13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="V13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="W13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="X13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291324</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="C14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="D14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="E14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="F14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="G14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="H14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="I14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="T14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="U14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="V14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="W14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="X14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="C16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="D16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="E16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="F16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="G16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="H16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="I16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="J16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="K16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="L16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="M16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="N16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="O16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="P16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="R16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="S16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="T16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="U16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="V16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="W16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="X16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.268942528291371</v>
+        <v>3.268942528291374</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="C17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="D17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="E17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="F17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="G17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="H17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="I17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="T17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="U17" t="n">
-        <v>3.268942528291916</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="V17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="W17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="X17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="C19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="D19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="E19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="F19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="G19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="H19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="I19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="J19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="K19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="L19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="M19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="N19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="O19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="P19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="R19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="S19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="T19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="U19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="V19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="W19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="X19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.268942528291371</v>
+        <v>3.26894252829137</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="C20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="D20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="E20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="F20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="G20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="H20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="I20" t="n">
-        <v>3.26894252829193</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="T20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="U20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="V20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291632</v>
       </c>
       <c r="W20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="X20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="C22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="D22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="E22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="F22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="G22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="H22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="I22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="J22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="K22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="L22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="M22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="N22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="O22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="P22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="R22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="S22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="T22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="U22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="V22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="W22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="X22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.268942528291428</v>
+        <v>3.268942528291399</v>
       </c>
     </row>
     <row r="23">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>12.9060573526898</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,11 +29050,11 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>18.06404028584011</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -29086,13 +29086,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>18.06404028584011</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>12.90605735268943</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>18.06404028584011</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>14.79509775754874</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>4.648844651723778</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29332,16 +29332,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>4.648844651723948</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.79509775754874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="C28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="D28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="E28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="F28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="G28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="H28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="I28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="J28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="K28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="L28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="M28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="N28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="O28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="P28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="R28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="S28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="T28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="U28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="V28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="W28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="X28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.79509775754874</v>
+        <v>14.79509775754879</v>
       </c>
     </row>
     <row r="29">
@@ -29515,23 +29515,23 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>14.79509775754874</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>14.79509775754874</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
@@ -29563,19 +29563,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>14.79509775754874</v>
       </c>
-      <c r="U29" t="n">
-        <v>4.64884465172463</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>14.79509775754874</v>
+        <v>4.648844651723209</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>49.03413792436888</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>49.03413792437016</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="C34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="D34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="E34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="F34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="G34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="H34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="I34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="J34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="K34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="L34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="M34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="N34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="O34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="P34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="R34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="S34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="T34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="U34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="V34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="W34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="X34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.92142574186153</v>
+        <v>68.9214257418615</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>49.03413792436908</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>49.03413792437013</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30271,10 +30271,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>49.03413792436979</v>
       </c>
       <c r="T38" t="n">
-        <v>49.03413792436913</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="C40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="D40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="E40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="F40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="G40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="H40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="I40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="J40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="K40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="L40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="M40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="N40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="O40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="P40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="R40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="S40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="T40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="U40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="V40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="W40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="X40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.92142574186153</v>
+        <v>68.92142574186151</v>
       </c>
     </row>
     <row r="41">
@@ -30469,10 +30469,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>49.03413792436925</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>49.0341379243701</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.03413792436908</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>49.0341379243701</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.299305457194252</v>
+        <v>3.299305457194253</v>
       </c>
       <c r="H23" t="n">
         <v>33.78901201349065</v>
@@ -32710,37 +32710,37 @@
         <v>280.0244265475409</v>
       </c>
       <c r="K23" t="n">
-        <v>419.6840265505737</v>
+        <v>419.6840265505738</v>
       </c>
       <c r="L23" t="n">
-        <v>520.6551459361824</v>
+        <v>520.6551459361825</v>
       </c>
       <c r="M23" t="n">
-        <v>579.3291693605606</v>
+        <v>579.3291693605607</v>
       </c>
       <c r="N23" t="n">
         <v>588.7033209908139</v>
       </c>
       <c r="O23" t="n">
-        <v>555.8958523508385</v>
+        <v>555.8958523508386</v>
       </c>
       <c r="P23" t="n">
-        <v>474.4442488763553</v>
+        <v>474.4442488763554</v>
       </c>
       <c r="Q23" t="n">
         <v>356.2878721905861</v>
       </c>
       <c r="R23" t="n">
-        <v>207.2499964254786</v>
+        <v>207.2499964254787</v>
       </c>
       <c r="S23" t="n">
-        <v>75.1829231058141</v>
+        <v>75.18292310581411</v>
       </c>
       <c r="T23" t="n">
         <v>14.44270963886785</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2639444365755401</v>
+        <v>0.2639444365755402</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>17.04892750862746</v>
       </c>
       <c r="I24" t="n">
-        <v>60.77842004665101</v>
+        <v>60.77842004665102</v>
       </c>
       <c r="J24" t="n">
-        <v>166.7806300923451</v>
+        <v>166.7806300923452</v>
       </c>
       <c r="K24" t="n">
         <v>285.0546612557389</v>
       </c>
       <c r="L24" t="n">
-        <v>383.291169988466</v>
+        <v>383.2911699884661</v>
       </c>
       <c r="M24" t="n">
         <v>447.2827167000036</v>
       </c>
       <c r="N24" t="n">
-        <v>459.1209592797908</v>
+        <v>459.1209592797909</v>
       </c>
       <c r="O24" t="n">
         <v>420.005981180978</v>
@@ -32807,7 +32807,7 @@
         <v>337.09182827912</v>
       </c>
       <c r="Q24" t="n">
-        <v>225.336960132195</v>
+        <v>225.3369601321951</v>
       </c>
       <c r="R24" t="n">
         <v>109.6024604051455</v>
@@ -32816,7 +32816,7 @@
         <v>32.78937692962635</v>
       </c>
       <c r="T24" t="n">
-        <v>7.115333506098376</v>
+        <v>7.115333506098377</v>
       </c>
       <c r="U24" t="n">
         <v>0.1161371083693969</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.479954845450455</v>
+        <v>1.479954845450456</v>
       </c>
       <c r="H25" t="n">
         <v>13.15814398955042</v>
       </c>
       <c r="I25" t="n">
-        <v>44.5062784431828</v>
+        <v>44.50627844318281</v>
       </c>
       <c r="J25" t="n">
         <v>104.6328075733472</v>
@@ -32889,16 +32889,16 @@
         <v>123.9260371040377</v>
       </c>
       <c r="R25" t="n">
-        <v>66.54415150543592</v>
+        <v>66.54415150543593</v>
       </c>
       <c r="S25" t="n">
         <v>25.79157671571384</v>
       </c>
       <c r="T25" t="n">
-        <v>6.323443430561036</v>
+        <v>6.323443430561037</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08072480975184312</v>
+        <v>0.08072480975184314</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.299305457194252</v>
+        <v>3.299305457194253</v>
       </c>
       <c r="H26" t="n">
         <v>33.78901201349065</v>
@@ -32947,37 +32947,37 @@
         <v>280.0244265475409</v>
       </c>
       <c r="K26" t="n">
-        <v>419.6840265505737</v>
+        <v>419.6840265505738</v>
       </c>
       <c r="L26" t="n">
-        <v>520.6551459361824</v>
+        <v>520.6551459361825</v>
       </c>
       <c r="M26" t="n">
-        <v>579.3291693605606</v>
+        <v>579.3291693605607</v>
       </c>
       <c r="N26" t="n">
         <v>588.7033209908139</v>
       </c>
       <c r="O26" t="n">
-        <v>555.8958523508385</v>
+        <v>555.8958523508386</v>
       </c>
       <c r="P26" t="n">
-        <v>474.4442488763553</v>
+        <v>474.4442488763554</v>
       </c>
       <c r="Q26" t="n">
         <v>356.2878721905861</v>
       </c>
       <c r="R26" t="n">
-        <v>207.2499964254786</v>
+        <v>207.2499964254787</v>
       </c>
       <c r="S26" t="n">
-        <v>75.1829231058141</v>
+        <v>75.18292310581411</v>
       </c>
       <c r="T26" t="n">
         <v>14.44270963886785</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2639444365755401</v>
+        <v>0.2639444365755402</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,22 +33020,22 @@
         <v>17.04892750862746</v>
       </c>
       <c r="I27" t="n">
-        <v>60.77842004665101</v>
+        <v>60.77842004665102</v>
       </c>
       <c r="J27" t="n">
-        <v>166.7806300923451</v>
+        <v>166.7806300923452</v>
       </c>
       <c r="K27" t="n">
         <v>285.0546612557389</v>
       </c>
       <c r="L27" t="n">
-        <v>383.291169988466</v>
+        <v>383.2911699884661</v>
       </c>
       <c r="M27" t="n">
         <v>447.2827167000036</v>
       </c>
       <c r="N27" t="n">
-        <v>459.1209592797908</v>
+        <v>459.1209592797909</v>
       </c>
       <c r="O27" t="n">
         <v>420.005981180978</v>
@@ -33044,7 +33044,7 @@
         <v>337.09182827912</v>
       </c>
       <c r="Q27" t="n">
-        <v>225.336960132195</v>
+        <v>225.3369601321951</v>
       </c>
       <c r="R27" t="n">
         <v>109.6024604051455</v>
@@ -33053,7 +33053,7 @@
         <v>32.78937692962635</v>
       </c>
       <c r="T27" t="n">
-        <v>7.115333506098376</v>
+        <v>7.115333506098377</v>
       </c>
       <c r="U27" t="n">
         <v>0.1161371083693969</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.479954845450455</v>
+        <v>1.479954845450456</v>
       </c>
       <c r="H28" t="n">
         <v>13.15814398955042</v>
       </c>
       <c r="I28" t="n">
-        <v>44.5062784431828</v>
+        <v>44.50627844318281</v>
       </c>
       <c r="J28" t="n">
         <v>104.6328075733472</v>
@@ -33126,16 +33126,16 @@
         <v>123.9260371040377</v>
       </c>
       <c r="R28" t="n">
-        <v>66.54415150543592</v>
+        <v>66.54415150543593</v>
       </c>
       <c r="S28" t="n">
         <v>25.79157671571384</v>
       </c>
       <c r="T28" t="n">
-        <v>6.323443430561036</v>
+        <v>6.323443430561037</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08072480975184312</v>
+        <v>0.08072480975184314</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.299305457194252</v>
+        <v>3.299305457194253</v>
       </c>
       <c r="H29" t="n">
         <v>33.78901201349065</v>
@@ -33184,37 +33184,37 @@
         <v>280.0244265475409</v>
       </c>
       <c r="K29" t="n">
-        <v>419.6840265505737</v>
+        <v>419.6840265505738</v>
       </c>
       <c r="L29" t="n">
-        <v>520.6551459361824</v>
+        <v>520.6551459361825</v>
       </c>
       <c r="M29" t="n">
-        <v>579.3291693605606</v>
+        <v>579.3291693605607</v>
       </c>
       <c r="N29" t="n">
         <v>588.7033209908139</v>
       </c>
       <c r="O29" t="n">
-        <v>555.8958523508385</v>
+        <v>555.8958523508386</v>
       </c>
       <c r="P29" t="n">
-        <v>474.4442488763553</v>
+        <v>474.4442488763554</v>
       </c>
       <c r="Q29" t="n">
         <v>356.2878721905861</v>
       </c>
       <c r="R29" t="n">
-        <v>207.2499964254786</v>
+        <v>207.2499964254787</v>
       </c>
       <c r="S29" t="n">
-        <v>75.1829231058141</v>
+        <v>75.18292310581411</v>
       </c>
       <c r="T29" t="n">
         <v>14.44270963886785</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2639444365755401</v>
+        <v>0.2639444365755402</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,22 +33257,22 @@
         <v>17.04892750862746</v>
       </c>
       <c r="I30" t="n">
-        <v>60.77842004665101</v>
+        <v>60.77842004665102</v>
       </c>
       <c r="J30" t="n">
-        <v>166.7806300923451</v>
+        <v>166.7806300923452</v>
       </c>
       <c r="K30" t="n">
         <v>285.0546612557389</v>
       </c>
       <c r="L30" t="n">
-        <v>383.291169988466</v>
+        <v>383.2911699884661</v>
       </c>
       <c r="M30" t="n">
         <v>447.2827167000036</v>
       </c>
       <c r="N30" t="n">
-        <v>459.1209592797908</v>
+        <v>459.1209592797909</v>
       </c>
       <c r="O30" t="n">
         <v>420.005981180978</v>
@@ -33281,7 +33281,7 @@
         <v>337.09182827912</v>
       </c>
       <c r="Q30" t="n">
-        <v>225.336960132195</v>
+        <v>225.3369601321951</v>
       </c>
       <c r="R30" t="n">
         <v>109.6024604051455</v>
@@ -33290,7 +33290,7 @@
         <v>32.78937692962635</v>
       </c>
       <c r="T30" t="n">
-        <v>7.115333506098376</v>
+        <v>7.115333506098377</v>
       </c>
       <c r="U30" t="n">
         <v>0.1161371083693969</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.479954845450455</v>
+        <v>1.479954845450456</v>
       </c>
       <c r="H31" t="n">
         <v>13.15814398955042</v>
       </c>
       <c r="I31" t="n">
-        <v>44.5062784431828</v>
+        <v>44.50627844318281</v>
       </c>
       <c r="J31" t="n">
         <v>104.6328075733472</v>
@@ -33363,16 +33363,16 @@
         <v>123.9260371040377</v>
       </c>
       <c r="R31" t="n">
-        <v>66.54415150543592</v>
+        <v>66.54415150543593</v>
       </c>
       <c r="S31" t="n">
         <v>25.79157671571384</v>
       </c>
       <c r="T31" t="n">
-        <v>6.323443430561036</v>
+        <v>6.323443430561037</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08072480975184312</v>
+        <v>0.08072480975184314</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.299305457194252</v>
+        <v>3.299305457194253</v>
       </c>
       <c r="H32" t="n">
         <v>33.78901201349065</v>
@@ -33421,37 +33421,37 @@
         <v>280.0244265475409</v>
       </c>
       <c r="K32" t="n">
-        <v>419.6840265505737</v>
+        <v>419.6840265505738</v>
       </c>
       <c r="L32" t="n">
-        <v>520.6551459361824</v>
+        <v>520.6551459361825</v>
       </c>
       <c r="M32" t="n">
-        <v>579.3291693605606</v>
+        <v>579.3291693605607</v>
       </c>
       <c r="N32" t="n">
         <v>588.7033209908139</v>
       </c>
       <c r="O32" t="n">
-        <v>555.8958523508385</v>
+        <v>555.8958523508386</v>
       </c>
       <c r="P32" t="n">
-        <v>474.4442488763553</v>
+        <v>474.4442488763554</v>
       </c>
       <c r="Q32" t="n">
         <v>356.2878721905861</v>
       </c>
       <c r="R32" t="n">
-        <v>207.2499964254786</v>
+        <v>207.2499964254787</v>
       </c>
       <c r="S32" t="n">
-        <v>75.1829231058141</v>
+        <v>75.18292310581411</v>
       </c>
       <c r="T32" t="n">
         <v>14.44270963886785</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2639444365755401</v>
+        <v>0.2639444365755402</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,22 +33494,22 @@
         <v>17.04892750862746</v>
       </c>
       <c r="I33" t="n">
-        <v>60.77842004665101</v>
+        <v>60.77842004665102</v>
       </c>
       <c r="J33" t="n">
-        <v>166.7806300923451</v>
+        <v>166.7806300923452</v>
       </c>
       <c r="K33" t="n">
         <v>285.0546612557389</v>
       </c>
       <c r="L33" t="n">
-        <v>383.291169988466</v>
+        <v>383.2911699884661</v>
       </c>
       <c r="M33" t="n">
         <v>447.2827167000036</v>
       </c>
       <c r="N33" t="n">
-        <v>459.1209592797908</v>
+        <v>459.1209592797909</v>
       </c>
       <c r="O33" t="n">
         <v>420.005981180978</v>
@@ -33518,7 +33518,7 @@
         <v>337.09182827912</v>
       </c>
       <c r="Q33" t="n">
-        <v>225.336960132195</v>
+        <v>225.3369601321951</v>
       </c>
       <c r="R33" t="n">
         <v>109.6024604051455</v>
@@ -33527,7 +33527,7 @@
         <v>32.78937692962635</v>
       </c>
       <c r="T33" t="n">
-        <v>7.115333506098376</v>
+        <v>7.115333506098377</v>
       </c>
       <c r="U33" t="n">
         <v>0.1161371083693969</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.479954845450455</v>
+        <v>1.479954845450456</v>
       </c>
       <c r="H34" t="n">
         <v>13.15814398955042</v>
       </c>
       <c r="I34" t="n">
-        <v>44.5062784431828</v>
+        <v>44.50627844318281</v>
       </c>
       <c r="J34" t="n">
         <v>104.6328075733472</v>
@@ -33600,16 +33600,16 @@
         <v>123.9260371040377</v>
       </c>
       <c r="R34" t="n">
-        <v>66.54415150543592</v>
+        <v>66.54415150543593</v>
       </c>
       <c r="S34" t="n">
         <v>25.79157671571384</v>
       </c>
       <c r="T34" t="n">
-        <v>6.323443430561036</v>
+        <v>6.323443430561037</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08072480975184312</v>
+        <v>0.08072480975184314</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34123,13 +34123,13 @@
         <v>3.299305457194253</v>
       </c>
       <c r="H41" t="n">
-        <v>33.78901201349066</v>
+        <v>33.78901201349065</v>
       </c>
       <c r="I41" t="n">
-        <v>127.1964736384816</v>
+        <v>127.1964736384815</v>
       </c>
       <c r="J41" t="n">
-        <v>280.024426547541</v>
+        <v>280.0244265475409</v>
       </c>
       <c r="K41" t="n">
         <v>419.6840265505738</v>
@@ -34138,16 +34138,16 @@
         <v>520.6551459361825</v>
       </c>
       <c r="M41" t="n">
-        <v>579.3291693605609</v>
+        <v>579.3291693605607</v>
       </c>
       <c r="N41" t="n">
-        <v>588.7033209908141</v>
+        <v>588.7033209908139</v>
       </c>
       <c r="O41" t="n">
-        <v>555.8958523508387</v>
+        <v>555.8958523508386</v>
       </c>
       <c r="P41" t="n">
-        <v>474.4442488763555</v>
+        <v>474.4442488763554</v>
       </c>
       <c r="Q41" t="n">
         <v>356.2878721905861</v>
@@ -34156,7 +34156,7 @@
         <v>207.2499964254787</v>
       </c>
       <c r="S41" t="n">
-        <v>75.18292310581413</v>
+        <v>75.18292310581411</v>
       </c>
       <c r="T41" t="n">
         <v>14.44270963886785</v>
@@ -34205,7 +34205,7 @@
         <v>17.04892750862746</v>
       </c>
       <c r="I42" t="n">
-        <v>60.77842004665103</v>
+        <v>60.77842004665102</v>
       </c>
       <c r="J42" t="n">
         <v>166.7806300923452</v>
@@ -34214,19 +34214,19 @@
         <v>285.0546612557389</v>
       </c>
       <c r="L42" t="n">
-        <v>383.2911699884662</v>
+        <v>383.2911699884661</v>
       </c>
       <c r="M42" t="n">
-        <v>447.2827167000037</v>
+        <v>447.2827167000036</v>
       </c>
       <c r="N42" t="n">
-        <v>459.120959279791</v>
+        <v>459.1209592797909</v>
       </c>
       <c r="O42" t="n">
-        <v>420.0059811809781</v>
+        <v>420.005981180978</v>
       </c>
       <c r="P42" t="n">
-        <v>337.0918282791201</v>
+        <v>337.09182827912</v>
       </c>
       <c r="Q42" t="n">
         <v>225.3369601321951</v>
@@ -34235,10 +34235,10 @@
         <v>109.6024604051455</v>
       </c>
       <c r="S42" t="n">
-        <v>32.78937692962636</v>
+        <v>32.78937692962635</v>
       </c>
       <c r="T42" t="n">
-        <v>7.115333506098378</v>
+        <v>7.115333506098377</v>
       </c>
       <c r="U42" t="n">
         <v>0.1161371083693969</v>
@@ -34281,7 +34281,7 @@
         <v>1.479954845450456</v>
       </c>
       <c r="H43" t="n">
-        <v>13.15814398955043</v>
+        <v>13.15814398955042</v>
       </c>
       <c r="I43" t="n">
         <v>44.50627844318281</v>
@@ -34290,13 +34290,13 @@
         <v>104.6328075733472</v>
       </c>
       <c r="K43" t="n">
-        <v>171.9438447714257</v>
+        <v>171.9438447714256</v>
       </c>
       <c r="L43" t="n">
         <v>220.0289231136069</v>
       </c>
       <c r="M43" t="n">
-        <v>231.9896490918383</v>
+        <v>231.9896490918382</v>
       </c>
       <c r="N43" t="n">
         <v>226.4734537587958</v>
@@ -34305,7 +34305,7 @@
         <v>209.1848903369427</v>
       </c>
       <c r="P43" t="n">
-        <v>178.9938114897533</v>
+        <v>178.9938114897532</v>
       </c>
       <c r="Q43" t="n">
         <v>123.9260371040377</v>
@@ -34317,7 +34317,7 @@
         <v>25.79157671571384</v>
       </c>
       <c r="T43" t="n">
-        <v>6.323443430561038</v>
+        <v>6.323443430561037</v>
       </c>
       <c r="U43" t="n">
         <v>0.08072480975184314</v>
@@ -34360,13 +34360,13 @@
         <v>3.299305457194253</v>
       </c>
       <c r="H44" t="n">
-        <v>33.78901201349066</v>
+        <v>33.78901201349065</v>
       </c>
       <c r="I44" t="n">
-        <v>127.1964736384816</v>
+        <v>127.1964736384815</v>
       </c>
       <c r="J44" t="n">
-        <v>280.024426547541</v>
+        <v>280.0244265475409</v>
       </c>
       <c r="K44" t="n">
         <v>419.6840265505738</v>
@@ -34375,16 +34375,16 @@
         <v>520.6551459361825</v>
       </c>
       <c r="M44" t="n">
-        <v>579.3291693605609</v>
+        <v>579.3291693605607</v>
       </c>
       <c r="N44" t="n">
-        <v>588.7033209908141</v>
+        <v>588.7033209908139</v>
       </c>
       <c r="O44" t="n">
-        <v>555.8958523508387</v>
+        <v>555.8958523508386</v>
       </c>
       <c r="P44" t="n">
-        <v>474.4442488763555</v>
+        <v>474.4442488763554</v>
       </c>
       <c r="Q44" t="n">
         <v>356.2878721905861</v>
@@ -34393,7 +34393,7 @@
         <v>207.2499964254787</v>
       </c>
       <c r="S44" t="n">
-        <v>75.18292310581413</v>
+        <v>75.18292310581411</v>
       </c>
       <c r="T44" t="n">
         <v>14.44270963886785</v>
@@ -34442,7 +34442,7 @@
         <v>17.04892750862746</v>
       </c>
       <c r="I45" t="n">
-        <v>60.77842004665103</v>
+        <v>60.77842004665102</v>
       </c>
       <c r="J45" t="n">
         <v>166.7806300923452</v>
@@ -34451,19 +34451,19 @@
         <v>285.0546612557389</v>
       </c>
       <c r="L45" t="n">
-        <v>383.2911699884662</v>
+        <v>383.2911699884661</v>
       </c>
       <c r="M45" t="n">
-        <v>447.2827167000037</v>
+        <v>447.2827167000036</v>
       </c>
       <c r="N45" t="n">
-        <v>459.120959279791</v>
+        <v>459.1209592797909</v>
       </c>
       <c r="O45" t="n">
-        <v>420.0059811809781</v>
+        <v>420.005981180978</v>
       </c>
       <c r="P45" t="n">
-        <v>337.0918282791201</v>
+        <v>337.09182827912</v>
       </c>
       <c r="Q45" t="n">
         <v>225.3369601321951</v>
@@ -34472,10 +34472,10 @@
         <v>109.6024604051455</v>
       </c>
       <c r="S45" t="n">
-        <v>32.78937692962636</v>
+        <v>32.78937692962635</v>
       </c>
       <c r="T45" t="n">
-        <v>7.115333506098378</v>
+        <v>7.115333506098377</v>
       </c>
       <c r="U45" t="n">
         <v>0.1161371083693969</v>
@@ -34518,7 +34518,7 @@
         <v>1.479954845450456</v>
       </c>
       <c r="H46" t="n">
-        <v>13.15814398955043</v>
+        <v>13.15814398955042</v>
       </c>
       <c r="I46" t="n">
         <v>44.50627844318281</v>
@@ -34527,13 +34527,13 @@
         <v>104.6328075733472</v>
       </c>
       <c r="K46" t="n">
-        <v>171.9438447714257</v>
+        <v>171.9438447714256</v>
       </c>
       <c r="L46" t="n">
         <v>220.0289231136069</v>
       </c>
       <c r="M46" t="n">
-        <v>231.9896490918383</v>
+        <v>231.9896490918382</v>
       </c>
       <c r="N46" t="n">
         <v>226.4734537587958</v>
@@ -34542,7 +34542,7 @@
         <v>209.1848903369427</v>
       </c>
       <c r="P46" t="n">
-        <v>178.9938114897533</v>
+        <v>178.9938114897532</v>
       </c>
       <c r="Q46" t="n">
         <v>123.9260371040377</v>
@@ -34554,7 +34554,7 @@
         <v>25.79157671571384</v>
       </c>
       <c r="T46" t="n">
-        <v>6.323443430561038</v>
+        <v>6.323443430561037</v>
       </c>
       <c r="U46" t="n">
         <v>0.08072480975184314</v>
@@ -34784,7 +34784,7 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>203.7667864659608</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>58.05132806838587</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K6" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>114.2573676262245</v>
       </c>
       <c r="M6" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>131.08416347757</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35489,10 +35489,10 @@
         <v>39.94300342567846</v>
       </c>
       <c r="K12" t="n">
-        <v>147.2132222813799</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L12" t="n">
-        <v>244.7367902085919</v>
+        <v>615.577135512051</v>
       </c>
       <c r="M12" t="n">
         <v>305.1486827779852</v>
@@ -35501,16 +35501,16 @@
         <v>327.7792471964575</v>
       </c>
       <c r="O12" t="n">
-        <v>662.0364154500577</v>
+        <v>277.4097367365335</v>
       </c>
       <c r="P12" t="n">
-        <v>521.5801895047268</v>
+        <v>490.4231998905647</v>
       </c>
       <c r="Q12" t="n">
-        <v>295.4324737820226</v>
+        <v>85.35518604617351</v>
       </c>
       <c r="R12" t="n">
-        <v>9.444626252502346</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.54256998496579</v>
+        <v>14.54256998496574</v>
       </c>
       <c r="K13" t="n">
         <v>152.9432954738341</v>
       </c>
       <c r="L13" t="n">
-        <v>250.8878909022144</v>
+        <v>250.8878909022143</v>
       </c>
       <c r="M13" t="n">
         <v>274.8424685819701</v>
@@ -35583,10 +35583,10 @@
         <v>237.0389607792737</v>
       </c>
       <c r="P13" t="n">
-        <v>179.5413132829381</v>
+        <v>179.541313282938</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.03293638063469</v>
+        <v>41.03293638063464</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>166.0340387660873</v>
+        <v>39.94300342567846</v>
       </c>
       <c r="K15" t="n">
         <v>147.2132222813799</v>
@@ -35738,13 +35738,13 @@
         <v>807.1216215400111</v>
       </c>
       <c r="O15" t="n">
-        <v>277.4097367365335</v>
+        <v>402.2159550948556</v>
       </c>
       <c r="P15" t="n">
-        <v>310.218084786791</v>
+        <v>521.5801895047268</v>
       </c>
       <c r="Q15" t="n">
-        <v>295.4324737820226</v>
+        <v>85.35518604617351</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R17" t="n">
-        <v>57.38087848432895</v>
+        <v>57.3808784843288</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>39.94300342567846</v>
+        <v>166.0340387660873</v>
       </c>
       <c r="K18" t="n">
-        <v>147.2132222813799</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L18" t="n">
-        <v>383.1803191604677</v>
+        <v>244.7367902085919</v>
       </c>
       <c r="M18" t="n">
-        <v>770.8537465279851</v>
+        <v>305.1486827779852</v>
       </c>
       <c r="N18" t="n">
         <v>327.7792471964575</v>
       </c>
       <c r="O18" t="n">
-        <v>277.4097367365335</v>
+        <v>280.9247693495726</v>
       </c>
       <c r="P18" t="n">
         <v>521.5801895047268</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.35518604617351</v>
+        <v>295.4324737820226</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>166.0340387660873</v>
+        <v>39.94300342567846</v>
       </c>
       <c r="K21" t="n">
-        <v>159.5657158928469</v>
+        <v>380.5214696797965</v>
       </c>
       <c r="L21" t="n">
-        <v>244.7367902085919</v>
+        <v>615.577135512051</v>
       </c>
       <c r="M21" t="n">
-        <v>770.8537465279851</v>
+        <v>305.1486827779852</v>
       </c>
       <c r="N21" t="n">
         <v>327.7792471964575</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.54256998496585</v>
+        <v>14.54256998496582</v>
       </c>
       <c r="K22" t="n">
         <v>152.9432954738342</v>
@@ -36291,13 +36291,13 @@
         <v>273.8745686663158</v>
       </c>
       <c r="O22" t="n">
-        <v>237.0389607792738</v>
+        <v>237.0389607792737</v>
       </c>
       <c r="P22" t="n">
         <v>179.5413132829381</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.03293638063474</v>
+        <v>41.03293638063472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>268.0751371929284</v>
       </c>
       <c r="K23" t="n">
-        <v>523.7395880767579</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L23" t="n">
-        <v>702.5499455166456</v>
+        <v>702.5499455166457</v>
       </c>
       <c r="M23" t="n">
-        <v>798.4964696261204</v>
+        <v>798.4964696261205</v>
       </c>
       <c r="N23" t="n">
         <v>796.6371818062072</v>
       </c>
       <c r="O23" t="n">
-        <v>706.5978221918971</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P23" t="n">
         <v>565.0099612925685</v>
@@ -36379,7 +36379,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R23" t="n">
-        <v>57.38087848432895</v>
+        <v>57.38087848432897</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>166.0340387660873</v>
+        <v>117.1714947156037</v>
       </c>
       <c r="K24" t="n">
-        <v>147.2132222813799</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L24" t="n">
-        <v>244.7367902085919</v>
+        <v>615.5771355120511</v>
       </c>
       <c r="M24" t="n">
-        <v>379.8992946102202</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N24" t="n">
-        <v>327.7792471964575</v>
+        <v>327.7792471964576</v>
       </c>
       <c r="O24" t="n">
-        <v>671.2720560132631</v>
+        <v>277.4097367365336</v>
       </c>
       <c r="P24" t="n">
-        <v>521.5801895047268</v>
+        <v>203.1174208647898</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.35518604617351</v>
+        <v>295.4324737820226</v>
       </c>
       <c r="R24" t="n">
-        <v>9.444626252502346</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>29.33766774251453</v>
+        <v>29.33766774251454</v>
       </c>
       <c r="K25" t="n">
         <v>167.7383932313829</v>
@@ -36534,7 +36534,7 @@
         <v>194.3364110404868</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.82803413818343</v>
+        <v>55.82803413818344</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>268.0751371929284</v>
       </c>
       <c r="K26" t="n">
-        <v>523.7395880767579</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L26" t="n">
-        <v>702.5499455166456</v>
+        <v>702.5499455166457</v>
       </c>
       <c r="M26" t="n">
-        <v>798.4964696261204</v>
+        <v>798.4964696261205</v>
       </c>
       <c r="N26" t="n">
         <v>796.6371818062072</v>
       </c>
       <c r="O26" t="n">
-        <v>706.5978221918971</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P26" t="n">
         <v>565.0099612925685</v>
@@ -36616,7 +36616,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R26" t="n">
-        <v>57.38087848432895</v>
+        <v>57.38087848432897</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>166.0340387660873</v>
+        <v>39.94300342567848</v>
       </c>
       <c r="K27" t="n">
-        <v>147.2132222813799</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L27" t="n">
-        <v>244.7367902085919</v>
+        <v>584.4201458978882</v>
       </c>
       <c r="M27" t="n">
-        <v>698.3620632501573</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N27" t="n">
-        <v>327.7792471964575</v>
+        <v>327.7792471964576</v>
       </c>
       <c r="O27" t="n">
-        <v>671.2720560132631</v>
+        <v>277.4097367365336</v>
       </c>
       <c r="P27" t="n">
-        <v>203.1174208647897</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.35518604617351</v>
+        <v>85.35518604617354</v>
       </c>
       <c r="R27" t="n">
-        <v>9.444626252502346</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>26.06872521422315</v>
+        <v>26.06872521422322</v>
       </c>
       <c r="K28" t="n">
-        <v>164.4694507030915</v>
+        <v>164.4694507030916</v>
       </c>
       <c r="L28" t="n">
-        <v>262.4140461314717</v>
+        <v>262.4140461314718</v>
       </c>
       <c r="M28" t="n">
-        <v>286.3686238112275</v>
+        <v>286.3686238112276</v>
       </c>
       <c r="N28" t="n">
-        <v>285.4007238955731</v>
+        <v>285.4007238955732</v>
       </c>
       <c r="O28" t="n">
-        <v>248.565116008531</v>
+        <v>248.5651160085312</v>
       </c>
       <c r="P28" t="n">
-        <v>191.0674685121954</v>
+        <v>191.0674685121955</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.55909160989205</v>
+        <v>52.55909160989212</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>268.0751371929284</v>
       </c>
       <c r="K29" t="n">
-        <v>523.7395880767579</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L29" t="n">
-        <v>702.5499455166456</v>
+        <v>702.5499455166457</v>
       </c>
       <c r="M29" t="n">
-        <v>798.4964696261204</v>
+        <v>798.4964696261205</v>
       </c>
       <c r="N29" t="n">
         <v>796.6371818062072</v>
       </c>
       <c r="O29" t="n">
-        <v>706.5978221918971</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P29" t="n">
         <v>565.0099612925685</v>
@@ -36853,7 +36853,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R29" t="n">
-        <v>57.38087848432895</v>
+        <v>57.38087848432897</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>166.0340387660873</v>
+        <v>39.94300342567848</v>
       </c>
       <c r="K30" t="n">
-        <v>411.6784592939585</v>
+        <v>147.2132222813799</v>
       </c>
       <c r="L30" t="n">
-        <v>244.7367902085919</v>
+        <v>615.5771355120511</v>
       </c>
       <c r="M30" t="n">
-        <v>305.1486827779852</v>
+        <v>770.8537465279852</v>
       </c>
       <c r="N30" t="n">
-        <v>640.3124221969316</v>
+        <v>327.7792471964576</v>
       </c>
       <c r="O30" t="n">
-        <v>277.4097367365335</v>
+        <v>363.4756890248864</v>
       </c>
       <c r="P30" t="n">
-        <v>203.1174208647897</v>
+        <v>203.1174208647898</v>
       </c>
       <c r="Q30" t="n">
-        <v>295.4324737820226</v>
+        <v>85.35518604617354</v>
       </c>
       <c r="R30" t="n">
-        <v>9.444626252502346</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>26.06872521422315</v>
+        <v>26.06872521422316</v>
       </c>
       <c r="K31" t="n">
         <v>164.4694507030915</v>
       </c>
       <c r="L31" t="n">
-        <v>262.4140461314717</v>
+        <v>262.4140461314718</v>
       </c>
       <c r="M31" t="n">
-        <v>286.3686238112275</v>
+        <v>286.3686238112276</v>
       </c>
       <c r="N31" t="n">
-        <v>285.4007238955731</v>
+        <v>285.4007238955732</v>
       </c>
       <c r="O31" t="n">
         <v>248.5651160085311</v>
       </c>
       <c r="P31" t="n">
-        <v>191.0674685121954</v>
+        <v>191.0674685121955</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.55909160989205</v>
+        <v>52.55909160989207</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>268.0751371929284</v>
       </c>
       <c r="K32" t="n">
-        <v>523.7395880767579</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L32" t="n">
-        <v>702.5499455166456</v>
+        <v>702.5499455166457</v>
       </c>
       <c r="M32" t="n">
-        <v>798.4964696261204</v>
+        <v>798.4964696261205</v>
       </c>
       <c r="N32" t="n">
         <v>796.6371818062072</v>
       </c>
       <c r="O32" t="n">
-        <v>706.5978221918971</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P32" t="n">
         <v>565.0099612925685</v>
@@ -37090,7 +37090,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R32" t="n">
-        <v>57.38087848432895</v>
+        <v>57.38087848432897</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>166.0340387660873</v>
       </c>
       <c r="K33" t="n">
-        <v>147.2132222813799</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L33" t="n">
-        <v>427.8728829449149</v>
+        <v>244.7367902085919</v>
       </c>
       <c r="M33" t="n">
-        <v>305.1486827779852</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N33" t="n">
-        <v>327.7792471964575</v>
+        <v>327.7792471964576</v>
       </c>
       <c r="O33" t="n">
-        <v>671.2720560132631</v>
+        <v>280.9247693495722</v>
       </c>
       <c r="P33" t="n">
-        <v>203.1174208647897</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q33" t="n">
         <v>295.4324737820226</v>
       </c>
       <c r="R33" t="n">
-        <v>9.444626252502346</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.19505319853594</v>
+        <v>80.19505319853593</v>
       </c>
       <c r="K34" t="n">
         <v>218.5957786874043</v>
@@ -37233,7 +37233,7 @@
         <v>316.5403741157845</v>
       </c>
       <c r="M34" t="n">
-        <v>340.4949517955403</v>
+        <v>340.4949517955404</v>
       </c>
       <c r="N34" t="n">
         <v>339.5270518798859</v>
@@ -37327,7 +37327,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R35" t="n">
-        <v>57.38087848432972</v>
+        <v>57.38087848432897</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>39.94300342567848</v>
+        <v>166.0340387660873</v>
       </c>
       <c r="K36" t="n">
         <v>411.6784592939585</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7332245353233</v>
+        <v>244.7367902085919</v>
       </c>
       <c r="M36" t="n">
-        <v>770.8537465279852</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N36" t="n">
-        <v>327.7792471964576</v>
+        <v>331.2942798094961</v>
       </c>
       <c r="O36" t="n">
         <v>277.4097367365336</v>
       </c>
       <c r="P36" t="n">
-        <v>203.1174208647898</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.35518604617354</v>
+        <v>295.4324737820226</v>
       </c>
       <c r="R36" t="n">
-        <v>9.44462625250236</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>340.4949517955403</v>
       </c>
       <c r="N37" t="n">
-        <v>339.5270518798859</v>
+        <v>339.5270518798858</v>
       </c>
       <c r="O37" t="n">
         <v>302.6914439928438</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>39.94300342567848</v>
+        <v>166.0340387660873</v>
       </c>
       <c r="K39" t="n">
-        <v>147.2132222813799</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L39" t="n">
-        <v>615.5771355120511</v>
+        <v>244.7367902085919</v>
       </c>
       <c r="M39" t="n">
-        <v>453.6127532871061</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N39" t="n">
-        <v>327.7792471964576</v>
+        <v>331.2942798094961</v>
       </c>
       <c r="O39" t="n">
-        <v>671.2720560132632</v>
+        <v>277.4097367365336</v>
       </c>
       <c r="P39" t="n">
-        <v>203.1174208647898</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.35518604617354</v>
+        <v>295.4324737820226</v>
       </c>
       <c r="R39" t="n">
-        <v>9.44462625250236</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.19505319853596</v>
+        <v>80.19505319853594</v>
       </c>
       <c r="K40" t="n">
         <v>218.5957786874043</v>
@@ -37719,7 +37719,7 @@
         <v>245.1937964965082</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.6854195942049</v>
+        <v>106.6854195942048</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>268.0751371929285</v>
+        <v>268.0751371929284</v>
       </c>
       <c r="K41" t="n">
-        <v>523.7395880767584</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L41" t="n">
         <v>702.5499455166457</v>
       </c>
       <c r="M41" t="n">
-        <v>798.4964696261206</v>
+        <v>798.4964696261205</v>
       </c>
       <c r="N41" t="n">
-        <v>796.6371818062073</v>
+        <v>796.6371818062072</v>
       </c>
       <c r="O41" t="n">
-        <v>706.5978221918973</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P41" t="n">
         <v>565.0099612925685</v>
@@ -37801,7 +37801,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R41" t="n">
-        <v>57.380878484329</v>
+        <v>57.3808784843288</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>39.94300342567851</v>
+        <v>166.0340387660873</v>
       </c>
       <c r="K42" t="n">
-        <v>147.21322228138</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L42" t="n">
-        <v>244.736790208592</v>
+        <v>244.7367902085919</v>
       </c>
       <c r="M42" t="n">
-        <v>505.990329950628</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N42" t="n">
         <v>327.7792471964576</v>
       </c>
       <c r="O42" t="n">
-        <v>671.2720560132632</v>
+        <v>277.4097367365336</v>
       </c>
       <c r="P42" t="n">
-        <v>521.5801895047271</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.35518604617357</v>
+        <v>289.5028801425586</v>
       </c>
       <c r="R42" t="n">
-        <v>9.444626252502374</v>
+        <v>9.44462625250236</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.19505319853592</v>
+        <v>80.1950531985359</v>
       </c>
       <c r="K43" t="n">
-        <v>218.5957786874043</v>
+        <v>218.5957786874042</v>
       </c>
       <c r="L43" t="n">
         <v>316.5403741157845</v>
@@ -37950,7 +37950,7 @@
         <v>339.5270518798859</v>
       </c>
       <c r="O43" t="n">
-        <v>302.6914439928439</v>
+        <v>302.6914439928438</v>
       </c>
       <c r="P43" t="n">
         <v>245.1937964965082</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>268.0751371929285</v>
+        <v>268.0751371929284</v>
       </c>
       <c r="K44" t="n">
-        <v>523.7395880767581</v>
+        <v>523.739588076758</v>
       </c>
       <c r="L44" t="n">
         <v>702.5499455166457</v>
       </c>
       <c r="M44" t="n">
-        <v>798.4964696261206</v>
+        <v>798.4964696261205</v>
       </c>
       <c r="N44" t="n">
-        <v>796.6371818062073</v>
+        <v>796.6371818062072</v>
       </c>
       <c r="O44" t="n">
-        <v>706.5978221918973</v>
+        <v>706.5978221918972</v>
       </c>
       <c r="P44" t="n">
         <v>565.0099612925685</v>
@@ -38038,7 +38038,7 @@
         <v>346.2971729760413</v>
       </c>
       <c r="R44" t="n">
-        <v>57.38087848432972</v>
+        <v>57.3808784843288</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>166.0340387660873</v>
       </c>
       <c r="K45" t="n">
-        <v>411.6784592939586</v>
+        <v>411.6784592939585</v>
       </c>
       <c r="L45" t="n">
-        <v>244.736790208592</v>
+        <v>244.7367902085919</v>
       </c>
       <c r="M45" t="n">
-        <v>770.8537465279853</v>
+        <v>305.1486827779853</v>
       </c>
       <c r="N45" t="n">
         <v>327.7792471964576</v>
       </c>
       <c r="O45" t="n">
-        <v>277.4097367365337</v>
+        <v>277.4097367365336</v>
       </c>
       <c r="P45" t="n">
-        <v>203.1174208647898</v>
+        <v>521.5801895047269</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.2605850324958</v>
+        <v>289.5028801425586</v>
       </c>
       <c r="R45" t="n">
-        <v>9.444626252502374</v>
+        <v>9.44462625250236</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.19505319853593</v>
+        <v>80.19505319853592</v>
       </c>
       <c r="K46" t="n">
         <v>218.5957786874043</v>
@@ -38184,7 +38184,7 @@
         <v>340.4949517955403</v>
       </c>
       <c r="N46" t="n">
-        <v>339.5270518798859</v>
+        <v>339.5270518798858</v>
       </c>
       <c r="O46" t="n">
         <v>302.6914439928439</v>
